--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.7 Plantilla_Lamparas_de_alumbrado_publico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.7 Plantilla_Lamparas_de_alumbrado_publico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125E5CB7-7161-4791-B09D-75A65DA20E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B63E6C-C999-487F-A115-65F211DCB1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{048E799F-1FF6-4BDA-9D71-D92380C958E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{048E799F-1FF6-4BDA-9D71-D92380C958E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Lampara de Alumbrado Electrico" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>Dell</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AE85AC85-F1B2-4D29-9302-D73FDD35681A}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{3F388C67-505A-4510-9C3D-609E098F0A68}">
       <text>
         <r>
           <rPr>
@@ -54,69 +54,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Año al que corresponde al registro.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4E688767-F91D-4884-A025-997ADD0B63B5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Potencia antes de la implementación.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{240E81DE-B2DE-4367-B9D5-DC5EDA77C9DB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Potencia posterior a la implementación.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4CD05B8C-AFB5-482F-9460-3923FFC54572}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Numero de unidades de este tipo o clase (Potencia iniciativa).
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6A498BF0-D5D0-423F-8040-61CAFB2A0B74}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Mes en el que se compraron las lámparas.
-</t>
+          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
         </r>
       </text>
     </comment>
@@ -125,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Año</t>
   </si>
@@ -184,28 +124,10 @@
     <t>Potencia Iniciativa (W)</t>
   </si>
   <si>
-    <t>Año al que corresponde el registro.</t>
-  </si>
-  <si>
-    <t>Potencia antes de la implementación.</t>
-  </si>
-  <si>
-    <t>Potencia posterior a la implementación.</t>
-  </si>
-  <si>
-    <t>Numero de unidades de este tipo o clase (Potencia iniciativa).</t>
-  </si>
-  <si>
-    <t>Mes en el que se compraron las lámparas.</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>Tipo L.BAU</t>
-  </si>
-  <si>
-    <t>Especificación de la lámpara</t>
   </si>
   <si>
     <t>TipoBAU</t>
@@ -220,23 +142,41 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Tipo INI</t>
-  </si>
-  <si>
-    <t>Especificación de la lámpara (LED)</t>
-  </si>
-  <si>
     <t>TipoINI</t>
   </si>
   <si>
     <t>LED</t>
+  </si>
+  <si>
+    <t>Año en que se compró equipo. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t>Potencia de lámpara BAU. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara BAU. Seleccione el desplegable.</t>
+  </si>
+  <si>
+    <t>Potencia de lámpara Iniciativa. Inserte su dato</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara Iniciativa. Seleccione el desplegable.</t>
+  </si>
+  <si>
+    <t>Numero de unidades de este tipo o clase (Potencia iniciativa).  Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Mes en el que se compraron las lámparas. Seleccione de la lista desplegable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,19 +197,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -294,8 +221,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -366,7 +306,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -384,7 +324,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -399,7 +339,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -409,6 +349,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,22 +679,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7422B1-01C7-47CE-A90F-DE7B5133F9DA}">
   <dimension ref="A1:J311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,19 +706,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -779,117 +732,103 @@
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="22">
+        <v>250</v>
+      </c>
+      <c r="C3" s="23">
+        <f t="shared" ref="C3:C66" si="0">VLOOKUP(D3,Tabla_TIBAU,2,)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2013</v>
-      </c>
-      <c r="B3" s="8">
-        <v>250</v>
-      </c>
-      <c r="C3" s="1">
-        <f>VLOOKUP(D3,Tabla_TIBAU,2,)</f>
+      <c r="E3" s="22">
+        <v>120</v>
+      </c>
+      <c r="F3" s="23">
+        <f t="shared" ref="F3:F66" si="1">VLOOKUP(G3,Tabla_TIPOINI,2,)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8">
-        <v>120</v>
-      </c>
-      <c r="F3" s="1">
-        <f>VLOOKUP(G3,Tabla_TIPOINI,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="22">
         <v>110000</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3:I65" si="0">VLOOKUP(J3,Tabla_Mes,2,)</f>
+      <c r="I3" s="21">
+        <f t="shared" ref="I3:I65" si="2">VLOOKUP(J3,Tabla_Mes,2,)</f>
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B4" s="8">
-        <v>220</v>
-      </c>
-      <c r="C4" s="20">
-        <f>VLOOKUP(D4,Tabla_TIBAU,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8">
-        <v>110</v>
-      </c>
-      <c r="F4" s="20">
-        <f>VLOOKUP(G4,Tabla_TIPOINI,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="8">
-        <v>150000</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="13" t="e">
-        <f>VLOOKUP(D5,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="9"/>
       <c r="F5" s="13" t="e">
-        <f>VLOOKUP(G5,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9"/>
       <c r="I5" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J5" s="3"/>
@@ -898,19 +837,19 @@
       <c r="A6" s="3"/>
       <c r="B6" s="9"/>
       <c r="C6" s="13" t="e">
-        <f>VLOOKUP(D6,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="9"/>
       <c r="F6" s="13" t="e">
-        <f>VLOOKUP(G6,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="9"/>
       <c r="I6" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J6" s="3"/>
@@ -919,19 +858,19 @@
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="13" t="e">
-        <f>VLOOKUP(D7,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="9"/>
       <c r="F7" s="13" t="e">
-        <f>VLOOKUP(G7,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="9"/>
       <c r="I7" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J7" s="3"/>
@@ -940,19 +879,19 @@
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="13" t="e">
-        <f>VLOOKUP(D8,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="9"/>
       <c r="F8" s="13" t="e">
-        <f>VLOOKUP(G8,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="9"/>
       <c r="I8" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J8" s="3"/>
@@ -961,19 +900,19 @@
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="13" t="e">
-        <f>VLOOKUP(D9,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="9"/>
       <c r="F9" s="13" t="e">
-        <f>VLOOKUP(G9,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="9"/>
       <c r="I9" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J9" s="3"/>
@@ -982,19 +921,19 @@
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="13" t="e">
-        <f>VLOOKUP(D10,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="9"/>
       <c r="F10" s="13" t="e">
-        <f>VLOOKUP(G10,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="9"/>
       <c r="I10" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J10" s="3"/>
@@ -1003,19 +942,19 @@
       <c r="A11" s="3"/>
       <c r="B11" s="9"/>
       <c r="C11" s="13" t="e">
-        <f>VLOOKUP(D11,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="9"/>
       <c r="F11" s="13" t="e">
-        <f>VLOOKUP(G11,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="9"/>
       <c r="I11" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J11" s="3"/>
@@ -1024,19 +963,19 @@
       <c r="A12" s="3"/>
       <c r="B12" s="9"/>
       <c r="C12" s="13" t="e">
-        <f>VLOOKUP(D12,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="9"/>
       <c r="F12" s="13" t="e">
-        <f>VLOOKUP(G12,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="9"/>
       <c r="I12" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J12" s="3"/>
@@ -1045,19 +984,19 @@
       <c r="A13" s="3"/>
       <c r="B13" s="9"/>
       <c r="C13" s="13" t="e">
-        <f>VLOOKUP(D13,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="9"/>
       <c r="F13" s="13" t="e">
-        <f>VLOOKUP(G13,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="9"/>
       <c r="I13" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J13" s="3"/>
@@ -1066,19 +1005,19 @@
       <c r="A14" s="3"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13" t="e">
-        <f>VLOOKUP(D14,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="9"/>
       <c r="F14" s="13" t="e">
-        <f>VLOOKUP(G14,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="9"/>
       <c r="I14" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J14" s="3"/>
@@ -1087,19 +1026,19 @@
       <c r="A15" s="3"/>
       <c r="B15" s="9"/>
       <c r="C15" s="13" t="e">
-        <f>VLOOKUP(D15,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="9"/>
       <c r="F15" s="13" t="e">
-        <f>VLOOKUP(G15,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="9"/>
       <c r="I15" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J15" s="3"/>
@@ -1108,19 +1047,19 @@
       <c r="A16" s="3"/>
       <c r="B16" s="9"/>
       <c r="C16" s="13" t="e">
-        <f>VLOOKUP(D16,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="9"/>
       <c r="F16" s="13" t="e">
-        <f>VLOOKUP(G16,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="9"/>
       <c r="I16" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J16" s="3"/>
@@ -1129,19 +1068,19 @@
       <c r="A17" s="3"/>
       <c r="B17" s="9"/>
       <c r="C17" s="13" t="e">
-        <f>VLOOKUP(D17,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="9"/>
       <c r="F17" s="13" t="e">
-        <f>VLOOKUP(G17,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="9"/>
       <c r="I17" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J17" s="3"/>
@@ -1150,19 +1089,19 @@
       <c r="A18" s="3"/>
       <c r="B18" s="9"/>
       <c r="C18" s="13" t="e">
-        <f>VLOOKUP(D18,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="9"/>
       <c r="F18" s="13" t="e">
-        <f>VLOOKUP(G18,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="9"/>
       <c r="I18" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J18" s="3"/>
@@ -1171,19 +1110,19 @@
       <c r="A19" s="3"/>
       <c r="B19" s="9"/>
       <c r="C19" s="13" t="e">
-        <f>VLOOKUP(D19,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="9"/>
       <c r="F19" s="13" t="e">
-        <f>VLOOKUP(G19,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="9"/>
       <c r="I19" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J19" s="3"/>
@@ -1192,19 +1131,19 @@
       <c r="A20" s="3"/>
       <c r="B20" s="9"/>
       <c r="C20" s="13" t="e">
-        <f>VLOOKUP(D20,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="9"/>
       <c r="F20" s="13" t="e">
-        <f>VLOOKUP(G20,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="9"/>
       <c r="I20" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J20" s="3"/>
@@ -1213,19 +1152,19 @@
       <c r="A21" s="3"/>
       <c r="B21" s="9"/>
       <c r="C21" s="13" t="e">
-        <f>VLOOKUP(D21,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="9"/>
       <c r="F21" s="13" t="e">
-        <f>VLOOKUP(G21,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="9"/>
       <c r="I21" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J21" s="3"/>
@@ -1234,19 +1173,19 @@
       <c r="A22" s="3"/>
       <c r="B22" s="9"/>
       <c r="C22" s="13" t="e">
-        <f>VLOOKUP(D22,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="9"/>
       <c r="F22" s="13" t="e">
-        <f>VLOOKUP(G22,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="9"/>
       <c r="I22" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J22" s="3"/>
@@ -1255,19 +1194,19 @@
       <c r="A23" s="3"/>
       <c r="B23" s="9"/>
       <c r="C23" s="13" t="e">
-        <f>VLOOKUP(D23,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="9"/>
       <c r="F23" s="13" t="e">
-        <f>VLOOKUP(G23,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="9"/>
       <c r="I23" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J23" s="3"/>
@@ -1276,19 +1215,19 @@
       <c r="A24" s="3"/>
       <c r="B24" s="9"/>
       <c r="C24" s="13" t="e">
-        <f>VLOOKUP(D24,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="9"/>
       <c r="F24" s="13" t="e">
-        <f>VLOOKUP(G24,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="9"/>
       <c r="I24" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J24" s="3"/>
@@ -1297,19 +1236,19 @@
       <c r="A25" s="3"/>
       <c r="B25" s="9"/>
       <c r="C25" s="13" t="e">
-        <f>VLOOKUP(D25,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="9"/>
       <c r="F25" s="13" t="e">
-        <f>VLOOKUP(G25,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="9"/>
       <c r="I25" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J25" s="3"/>
@@ -1318,19 +1257,19 @@
       <c r="A26" s="3"/>
       <c r="B26" s="9"/>
       <c r="C26" s="13" t="e">
-        <f>VLOOKUP(D26,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="9"/>
       <c r="F26" s="13" t="e">
-        <f>VLOOKUP(G26,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="9"/>
       <c r="I26" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J26" s="3"/>
@@ -1339,19 +1278,19 @@
       <c r="A27" s="3"/>
       <c r="B27" s="9"/>
       <c r="C27" s="13" t="e">
-        <f>VLOOKUP(D27,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="9"/>
       <c r="F27" s="13" t="e">
-        <f>VLOOKUP(G27,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="9"/>
       <c r="I27" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J27" s="3"/>
@@ -1360,19 +1299,19 @@
       <c r="A28" s="3"/>
       <c r="B28" s="9"/>
       <c r="C28" s="13" t="e">
-        <f>VLOOKUP(D28,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="9"/>
       <c r="F28" s="13" t="e">
-        <f>VLOOKUP(G28,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="9"/>
       <c r="I28" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J28" s="3"/>
@@ -1381,19 +1320,19 @@
       <c r="A29" s="3"/>
       <c r="B29" s="9"/>
       <c r="C29" s="13" t="e">
-        <f>VLOOKUP(D29,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="9"/>
       <c r="F29" s="13" t="e">
-        <f>VLOOKUP(G29,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="9"/>
       <c r="I29" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J29" s="3"/>
@@ -1402,19 +1341,19 @@
       <c r="A30" s="3"/>
       <c r="B30" s="9"/>
       <c r="C30" s="13" t="e">
-        <f>VLOOKUP(D30,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="9"/>
       <c r="F30" s="13" t="e">
-        <f>VLOOKUP(G30,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="9"/>
       <c r="I30" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J30" s="3"/>
@@ -1423,19 +1362,19 @@
       <c r="A31" s="3"/>
       <c r="B31" s="9"/>
       <c r="C31" s="13" t="e">
-        <f>VLOOKUP(D31,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="9"/>
       <c r="F31" s="13" t="e">
-        <f>VLOOKUP(G31,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="9"/>
       <c r="I31" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J31" s="3"/>
@@ -1444,19 +1383,19 @@
       <c r="A32" s="3"/>
       <c r="B32" s="9"/>
       <c r="C32" s="13" t="e">
-        <f>VLOOKUP(D32,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="9"/>
       <c r="F32" s="13" t="e">
-        <f>VLOOKUP(G32,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G32" s="19"/>
       <c r="H32" s="9"/>
       <c r="I32" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J32" s="3"/>
@@ -1465,19 +1404,19 @@
       <c r="A33" s="3"/>
       <c r="B33" s="9"/>
       <c r="C33" s="13" t="e">
-        <f>VLOOKUP(D33,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="9"/>
       <c r="F33" s="13" t="e">
-        <f>VLOOKUP(G33,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="9"/>
       <c r="I33" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J33" s="3"/>
@@ -1486,19 +1425,19 @@
       <c r="A34" s="3"/>
       <c r="B34" s="9"/>
       <c r="C34" s="13" t="e">
-        <f>VLOOKUP(D34,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="9"/>
       <c r="F34" s="13" t="e">
-        <f>VLOOKUP(G34,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="9"/>
       <c r="I34" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J34" s="3"/>
@@ -1507,19 +1446,19 @@
       <c r="A35" s="3"/>
       <c r="B35" s="9"/>
       <c r="C35" s="13" t="e">
-        <f>VLOOKUP(D35,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="9"/>
       <c r="F35" s="13" t="e">
-        <f>VLOOKUP(G35,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="9"/>
       <c r="I35" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J35" s="3"/>
@@ -1528,19 +1467,19 @@
       <c r="A36" s="3"/>
       <c r="B36" s="9"/>
       <c r="C36" s="13" t="e">
-        <f>VLOOKUP(D36,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="9"/>
       <c r="F36" s="13" t="e">
-        <f>VLOOKUP(G36,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="9"/>
       <c r="I36" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J36" s="3"/>
@@ -1549,19 +1488,19 @@
       <c r="A37" s="3"/>
       <c r="B37" s="9"/>
       <c r="C37" s="13" t="e">
-        <f>VLOOKUP(D37,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="9"/>
       <c r="F37" s="13" t="e">
-        <f>VLOOKUP(G37,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="9"/>
       <c r="I37" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J37" s="3"/>
@@ -1570,19 +1509,19 @@
       <c r="A38" s="3"/>
       <c r="B38" s="9"/>
       <c r="C38" s="13" t="e">
-        <f>VLOOKUP(D38,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="9"/>
       <c r="F38" s="13" t="e">
-        <f>VLOOKUP(G38,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="9"/>
       <c r="I38" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J38" s="3"/>
@@ -1591,19 +1530,19 @@
       <c r="A39" s="3"/>
       <c r="B39" s="9"/>
       <c r="C39" s="13" t="e">
-        <f>VLOOKUP(D39,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="9"/>
       <c r="F39" s="13" t="e">
-        <f>VLOOKUP(G39,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="9"/>
       <c r="I39" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J39" s="3"/>
@@ -1612,19 +1551,19 @@
       <c r="A40" s="3"/>
       <c r="B40" s="9"/>
       <c r="C40" s="13" t="e">
-        <f>VLOOKUP(D40,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="9"/>
       <c r="F40" s="13" t="e">
-        <f>VLOOKUP(G40,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="9"/>
       <c r="I40" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J40" s="3"/>
@@ -1633,19 +1572,19 @@
       <c r="A41" s="3"/>
       <c r="B41" s="9"/>
       <c r="C41" s="13" t="e">
-        <f>VLOOKUP(D41,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="9"/>
       <c r="F41" s="13" t="e">
-        <f>VLOOKUP(G41,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="9"/>
       <c r="I41" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J41" s="3"/>
@@ -1654,19 +1593,19 @@
       <c r="A42" s="3"/>
       <c r="B42" s="9"/>
       <c r="C42" s="13" t="e">
-        <f>VLOOKUP(D42,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="9"/>
       <c r="F42" s="13" t="e">
-        <f>VLOOKUP(G42,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G42" s="19"/>
       <c r="H42" s="9"/>
       <c r="I42" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J42" s="3"/>
@@ -1675,19 +1614,19 @@
       <c r="A43" s="3"/>
       <c r="B43" s="9"/>
       <c r="C43" s="13" t="e">
-        <f>VLOOKUP(D43,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="9"/>
       <c r="F43" s="13" t="e">
-        <f>VLOOKUP(G43,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="9"/>
       <c r="I43" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J43" s="3"/>
@@ -1696,19 +1635,19 @@
       <c r="A44" s="3"/>
       <c r="B44" s="9"/>
       <c r="C44" s="13" t="e">
-        <f>VLOOKUP(D44,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="9"/>
       <c r="F44" s="13" t="e">
-        <f>VLOOKUP(G44,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="9"/>
       <c r="I44" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J44" s="3"/>
@@ -1717,19 +1656,19 @@
       <c r="A45" s="3"/>
       <c r="B45" s="9"/>
       <c r="C45" s="13" t="e">
-        <f>VLOOKUP(D45,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="9"/>
       <c r="F45" s="13" t="e">
-        <f>VLOOKUP(G45,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="9"/>
       <c r="I45" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J45" s="3"/>
@@ -1738,19 +1677,19 @@
       <c r="A46" s="3"/>
       <c r="B46" s="9"/>
       <c r="C46" s="13" t="e">
-        <f>VLOOKUP(D46,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="9"/>
       <c r="F46" s="13" t="e">
-        <f>VLOOKUP(G46,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G46" s="19"/>
       <c r="H46" s="9"/>
       <c r="I46" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J46" s="3"/>
@@ -1759,19 +1698,19 @@
       <c r="A47" s="3"/>
       <c r="B47" s="9"/>
       <c r="C47" s="13" t="e">
-        <f>VLOOKUP(D47,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="9"/>
       <c r="F47" s="13" t="e">
-        <f>VLOOKUP(G47,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="9"/>
       <c r="I47" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J47" s="3"/>
@@ -1780,19 +1719,19 @@
       <c r="A48" s="3"/>
       <c r="B48" s="9"/>
       <c r="C48" s="13" t="e">
-        <f>VLOOKUP(D48,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="9"/>
       <c r="F48" s="13" t="e">
-        <f>VLOOKUP(G48,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="9"/>
       <c r="I48" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J48" s="3"/>
@@ -1801,19 +1740,19 @@
       <c r="A49" s="3"/>
       <c r="B49" s="9"/>
       <c r="C49" s="13" t="e">
-        <f>VLOOKUP(D49,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="9"/>
       <c r="F49" s="13" t="e">
-        <f>VLOOKUP(G49,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="9"/>
       <c r="I49" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J49" s="3"/>
@@ -1822,19 +1761,19 @@
       <c r="A50" s="3"/>
       <c r="B50" s="9"/>
       <c r="C50" s="13" t="e">
-        <f>VLOOKUP(D50,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="9"/>
       <c r="F50" s="13" t="e">
-        <f>VLOOKUP(G50,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="9"/>
       <c r="I50" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J50" s="3"/>
@@ -1843,19 +1782,19 @@
       <c r="A51" s="3"/>
       <c r="B51" s="9"/>
       <c r="C51" s="13" t="e">
-        <f>VLOOKUP(D51,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="9"/>
       <c r="F51" s="13" t="e">
-        <f>VLOOKUP(G51,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="9"/>
       <c r="I51" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J51" s="3"/>
@@ -1864,19 +1803,19 @@
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="13" t="e">
-        <f>VLOOKUP(D52,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="9"/>
       <c r="F52" s="13" t="e">
-        <f>VLOOKUP(G52,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="9"/>
       <c r="I52" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J52" s="3"/>
@@ -1885,19 +1824,19 @@
       <c r="A53" s="3"/>
       <c r="B53" s="9"/>
       <c r="C53" s="13" t="e">
-        <f>VLOOKUP(D53,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="9"/>
       <c r="F53" s="13" t="e">
-        <f>VLOOKUP(G53,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="9"/>
       <c r="I53" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J53" s="3"/>
@@ -1906,19 +1845,19 @@
       <c r="A54" s="3"/>
       <c r="B54" s="9"/>
       <c r="C54" s="13" t="e">
-        <f>VLOOKUP(D54,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="9"/>
       <c r="F54" s="13" t="e">
-        <f>VLOOKUP(G54,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="9"/>
       <c r="I54" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J54" s="3"/>
@@ -1927,19 +1866,19 @@
       <c r="A55" s="3"/>
       <c r="B55" s="9"/>
       <c r="C55" s="13" t="e">
-        <f>VLOOKUP(D55,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="9"/>
       <c r="F55" s="13" t="e">
-        <f>VLOOKUP(G55,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="9"/>
       <c r="I55" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J55" s="3"/>
@@ -1948,19 +1887,19 @@
       <c r="A56" s="3"/>
       <c r="B56" s="9"/>
       <c r="C56" s="13" t="e">
-        <f>VLOOKUP(D56,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="9"/>
       <c r="F56" s="13" t="e">
-        <f>VLOOKUP(G56,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G56" s="19"/>
       <c r="H56" s="9"/>
       <c r="I56" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J56" s="3"/>
@@ -1969,19 +1908,19 @@
       <c r="A57" s="3"/>
       <c r="B57" s="9"/>
       <c r="C57" s="13" t="e">
-        <f>VLOOKUP(D57,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="9"/>
       <c r="F57" s="13" t="e">
-        <f>VLOOKUP(G57,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="9"/>
       <c r="I57" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J57" s="3"/>
@@ -1990,19 +1929,19 @@
       <c r="A58" s="3"/>
       <c r="B58" s="9"/>
       <c r="C58" s="13" t="e">
-        <f>VLOOKUP(D58,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="9"/>
       <c r="F58" s="13" t="e">
-        <f>VLOOKUP(G58,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G58" s="19"/>
       <c r="H58" s="9"/>
       <c r="I58" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J58" s="3"/>
@@ -2011,19 +1950,19 @@
       <c r="A59" s="3"/>
       <c r="B59" s="9"/>
       <c r="C59" s="13" t="e">
-        <f>VLOOKUP(D59,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="9"/>
       <c r="F59" s="13" t="e">
-        <f>VLOOKUP(G59,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="9"/>
       <c r="I59" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J59" s="3"/>
@@ -2032,19 +1971,19 @@
       <c r="A60" s="3"/>
       <c r="B60" s="9"/>
       <c r="C60" s="13" t="e">
-        <f>VLOOKUP(D60,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="9"/>
       <c r="F60" s="13" t="e">
-        <f>VLOOKUP(G60,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="9"/>
       <c r="I60" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J60" s="3"/>
@@ -2053,19 +1992,19 @@
       <c r="A61" s="3"/>
       <c r="B61" s="9"/>
       <c r="C61" s="13" t="e">
-        <f>VLOOKUP(D61,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="9"/>
       <c r="F61" s="13" t="e">
-        <f>VLOOKUP(G61,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="9"/>
       <c r="I61" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J61" s="3"/>
@@ -2074,19 +2013,19 @@
       <c r="A62" s="3"/>
       <c r="B62" s="9"/>
       <c r="C62" s="13" t="e">
-        <f>VLOOKUP(D62,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="9"/>
       <c r="F62" s="13" t="e">
-        <f>VLOOKUP(G62,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="9"/>
       <c r="I62" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J62" s="3"/>
@@ -2095,19 +2034,19 @@
       <c r="A63" s="3"/>
       <c r="B63" s="9"/>
       <c r="C63" s="13" t="e">
-        <f>VLOOKUP(D63,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="9"/>
       <c r="F63" s="13" t="e">
-        <f>VLOOKUP(G63,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="9"/>
       <c r="I63" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J63" s="3"/>
@@ -2116,19 +2055,19 @@
       <c r="A64" s="3"/>
       <c r="B64" s="9"/>
       <c r="C64" s="13" t="e">
-        <f>VLOOKUP(D64,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="9"/>
       <c r="F64" s="13" t="e">
-        <f>VLOOKUP(G64,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G64" s="19"/>
       <c r="H64" s="9"/>
       <c r="I64" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J64" s="3"/>
@@ -2137,19 +2076,19 @@
       <c r="A65" s="3"/>
       <c r="B65" s="9"/>
       <c r="C65" s="13" t="e">
-        <f>VLOOKUP(D65,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="9"/>
       <c r="F65" s="13" t="e">
-        <f>VLOOKUP(G65,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="9"/>
       <c r="I65" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J65" s="3"/>
@@ -2158,19 +2097,19 @@
       <c r="A66" s="3"/>
       <c r="B66" s="9"/>
       <c r="C66" s="13" t="e">
-        <f>VLOOKUP(D66,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="9"/>
       <c r="F66" s="13" t="e">
-        <f>VLOOKUP(G66,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="G66" s="19"/>
       <c r="H66" s="9"/>
       <c r="I66" s="3" t="e">
-        <f t="shared" ref="I66:I129" si="1">VLOOKUP(J66,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I66:I129" si="3">VLOOKUP(J66,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="J66" s="3"/>
@@ -2179,19 +2118,19 @@
       <c r="A67" s="3"/>
       <c r="B67" s="9"/>
       <c r="C67" s="13" t="e">
-        <f>VLOOKUP(D67,Tabla_TIBAU,2,)</f>
+        <f t="shared" ref="C67:C130" si="4">VLOOKUP(D67,Tabla_TIBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="9"/>
       <c r="F67" s="13" t="e">
-        <f>VLOOKUP(G67,Tabla_TIPOINI,2,)</f>
+        <f t="shared" ref="F67:F130" si="5">VLOOKUP(G67,Tabla_TIPOINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="9"/>
       <c r="I67" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J67" s="3"/>
@@ -2200,19 +2139,19 @@
       <c r="A68" s="3"/>
       <c r="B68" s="9"/>
       <c r="C68" s="13" t="e">
-        <f>VLOOKUP(D68,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="9"/>
       <c r="F68" s="13" t="e">
-        <f>VLOOKUP(G68,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G68" s="19"/>
       <c r="H68" s="9"/>
       <c r="I68" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J68" s="3"/>
@@ -2221,19 +2160,19 @@
       <c r="A69" s="3"/>
       <c r="B69" s="9"/>
       <c r="C69" s="13" t="e">
-        <f>VLOOKUP(D69,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="9"/>
       <c r="F69" s="13" t="e">
-        <f>VLOOKUP(G69,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="9"/>
       <c r="I69" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J69" s="3"/>
@@ -2242,19 +2181,19 @@
       <c r="A70" s="3"/>
       <c r="B70" s="9"/>
       <c r="C70" s="13" t="e">
-        <f>VLOOKUP(D70,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="9"/>
       <c r="F70" s="13" t="e">
-        <f>VLOOKUP(G70,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G70" s="19"/>
       <c r="H70" s="9"/>
       <c r="I70" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J70" s="3"/>
@@ -2263,19 +2202,19 @@
       <c r="A71" s="3"/>
       <c r="B71" s="9"/>
       <c r="C71" s="13" t="e">
-        <f>VLOOKUP(D71,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="9"/>
       <c r="F71" s="13" t="e">
-        <f>VLOOKUP(G71,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="9"/>
       <c r="I71" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J71" s="3"/>
@@ -2284,19 +2223,19 @@
       <c r="A72" s="3"/>
       <c r="B72" s="9"/>
       <c r="C72" s="13" t="e">
-        <f>VLOOKUP(D72,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="9"/>
       <c r="F72" s="13" t="e">
-        <f>VLOOKUP(G72,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G72" s="19"/>
       <c r="H72" s="9"/>
       <c r="I72" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J72" s="3"/>
@@ -2305,19 +2244,19 @@
       <c r="A73" s="3"/>
       <c r="B73" s="9"/>
       <c r="C73" s="13" t="e">
-        <f>VLOOKUP(D73,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="9"/>
       <c r="F73" s="13" t="e">
-        <f>VLOOKUP(G73,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="9"/>
       <c r="I73" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J73" s="3"/>
@@ -2326,19 +2265,19 @@
       <c r="A74" s="3"/>
       <c r="B74" s="9"/>
       <c r="C74" s="13" t="e">
-        <f>VLOOKUP(D74,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="9"/>
       <c r="F74" s="13" t="e">
-        <f>VLOOKUP(G74,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="9"/>
       <c r="I74" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J74" s="3"/>
@@ -2347,19 +2286,19 @@
       <c r="A75" s="3"/>
       <c r="B75" s="9"/>
       <c r="C75" s="13" t="e">
-        <f>VLOOKUP(D75,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="9"/>
       <c r="F75" s="13" t="e">
-        <f>VLOOKUP(G75,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="9"/>
       <c r="I75" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J75" s="3"/>
@@ -2368,19 +2307,19 @@
       <c r="A76" s="3"/>
       <c r="B76" s="9"/>
       <c r="C76" s="13" t="e">
-        <f>VLOOKUP(D76,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="9"/>
       <c r="F76" s="13" t="e">
-        <f>VLOOKUP(G76,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G76" s="19"/>
       <c r="H76" s="9"/>
       <c r="I76" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J76" s="3"/>
@@ -2389,19 +2328,19 @@
       <c r="A77" s="3"/>
       <c r="B77" s="9"/>
       <c r="C77" s="13" t="e">
-        <f>VLOOKUP(D77,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="9"/>
       <c r="F77" s="13" t="e">
-        <f>VLOOKUP(G77,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="9"/>
       <c r="I77" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J77" s="3"/>
@@ -2410,19 +2349,19 @@
       <c r="A78" s="3"/>
       <c r="B78" s="9"/>
       <c r="C78" s="13" t="e">
-        <f>VLOOKUP(D78,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="9"/>
       <c r="F78" s="13" t="e">
-        <f>VLOOKUP(G78,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G78" s="19"/>
       <c r="H78" s="9"/>
       <c r="I78" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J78" s="3"/>
@@ -2431,19 +2370,19 @@
       <c r="A79" s="3"/>
       <c r="B79" s="9"/>
       <c r="C79" s="13" t="e">
-        <f>VLOOKUP(D79,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="9"/>
       <c r="F79" s="13" t="e">
-        <f>VLOOKUP(G79,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="9"/>
       <c r="I79" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J79" s="3"/>
@@ -2452,19 +2391,19 @@
       <c r="A80" s="3"/>
       <c r="B80" s="9"/>
       <c r="C80" s="13" t="e">
-        <f>VLOOKUP(D80,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="9"/>
       <c r="F80" s="13" t="e">
-        <f>VLOOKUP(G80,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G80" s="19"/>
       <c r="H80" s="9"/>
       <c r="I80" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J80" s="3"/>
@@ -2473,19 +2412,19 @@
       <c r="A81" s="3"/>
       <c r="B81" s="9"/>
       <c r="C81" s="13" t="e">
-        <f>VLOOKUP(D81,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="9"/>
       <c r="F81" s="13" t="e">
-        <f>VLOOKUP(G81,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="9"/>
       <c r="I81" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J81" s="3"/>
@@ -2494,19 +2433,19 @@
       <c r="A82" s="3"/>
       <c r="B82" s="9"/>
       <c r="C82" s="13" t="e">
-        <f>VLOOKUP(D82,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="9"/>
       <c r="F82" s="13" t="e">
-        <f>VLOOKUP(G82,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G82" s="19"/>
       <c r="H82" s="9"/>
       <c r="I82" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J82" s="3"/>
@@ -2515,19 +2454,19 @@
       <c r="A83" s="3"/>
       <c r="B83" s="9"/>
       <c r="C83" s="13" t="e">
-        <f>VLOOKUP(D83,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="9"/>
       <c r="F83" s="13" t="e">
-        <f>VLOOKUP(G83,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="9"/>
       <c r="I83" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J83" s="3"/>
@@ -2536,19 +2475,19 @@
       <c r="A84" s="3"/>
       <c r="B84" s="9"/>
       <c r="C84" s="13" t="e">
-        <f>VLOOKUP(D84,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="9"/>
       <c r="F84" s="13" t="e">
-        <f>VLOOKUP(G84,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G84" s="19"/>
       <c r="H84" s="9"/>
       <c r="I84" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J84" s="3"/>
@@ -2557,19 +2496,19 @@
       <c r="A85" s="3"/>
       <c r="B85" s="9"/>
       <c r="C85" s="13" t="e">
-        <f>VLOOKUP(D85,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="9"/>
       <c r="F85" s="13" t="e">
-        <f>VLOOKUP(G85,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="9"/>
       <c r="I85" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J85" s="3"/>
@@ -2578,19 +2517,19 @@
       <c r="A86" s="3"/>
       <c r="B86" s="9"/>
       <c r="C86" s="13" t="e">
-        <f>VLOOKUP(D86,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="9"/>
       <c r="F86" s="13" t="e">
-        <f>VLOOKUP(G86,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G86" s="19"/>
       <c r="H86" s="9"/>
       <c r="I86" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J86" s="3"/>
@@ -2599,19 +2538,19 @@
       <c r="A87" s="3"/>
       <c r="B87" s="9"/>
       <c r="C87" s="13" t="e">
-        <f>VLOOKUP(D87,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="9"/>
       <c r="F87" s="13" t="e">
-        <f>VLOOKUP(G87,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="9"/>
       <c r="I87" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J87" s="3"/>
@@ -2620,19 +2559,19 @@
       <c r="A88" s="3"/>
       <c r="B88" s="9"/>
       <c r="C88" s="13" t="e">
-        <f>VLOOKUP(D88,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="9"/>
       <c r="F88" s="13" t="e">
-        <f>VLOOKUP(G88,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G88" s="19"/>
       <c r="H88" s="9"/>
       <c r="I88" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J88" s="3"/>
@@ -2641,19 +2580,19 @@
       <c r="A89" s="3"/>
       <c r="B89" s="9"/>
       <c r="C89" s="13" t="e">
-        <f>VLOOKUP(D89,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="9"/>
       <c r="F89" s="13" t="e">
-        <f>VLOOKUP(G89,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="9"/>
       <c r="I89" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J89" s="3"/>
@@ -2662,19 +2601,19 @@
       <c r="A90" s="3"/>
       <c r="B90" s="9"/>
       <c r="C90" s="13" t="e">
-        <f>VLOOKUP(D90,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="9"/>
       <c r="F90" s="13" t="e">
-        <f>VLOOKUP(G90,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G90" s="19"/>
       <c r="H90" s="9"/>
       <c r="I90" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J90" s="3"/>
@@ -2683,19 +2622,19 @@
       <c r="A91" s="3"/>
       <c r="B91" s="9"/>
       <c r="C91" s="13" t="e">
-        <f>VLOOKUP(D91,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="9"/>
       <c r="F91" s="13" t="e">
-        <f>VLOOKUP(G91,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="9"/>
       <c r="I91" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J91" s="3"/>
@@ -2704,19 +2643,19 @@
       <c r="A92" s="3"/>
       <c r="B92" s="9"/>
       <c r="C92" s="13" t="e">
-        <f>VLOOKUP(D92,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="9"/>
       <c r="F92" s="13" t="e">
-        <f>VLOOKUP(G92,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G92" s="19"/>
       <c r="H92" s="9"/>
       <c r="I92" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J92" s="3"/>
@@ -2725,19 +2664,19 @@
       <c r="A93" s="3"/>
       <c r="B93" s="9"/>
       <c r="C93" s="13" t="e">
-        <f>VLOOKUP(D93,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="9"/>
       <c r="F93" s="13" t="e">
-        <f>VLOOKUP(G93,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="9"/>
       <c r="I93" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J93" s="3"/>
@@ -2746,19 +2685,19 @@
       <c r="A94" s="3"/>
       <c r="B94" s="9"/>
       <c r="C94" s="13" t="e">
-        <f>VLOOKUP(D94,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="9"/>
       <c r="F94" s="13" t="e">
-        <f>VLOOKUP(G94,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G94" s="19"/>
       <c r="H94" s="9"/>
       <c r="I94" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J94" s="3"/>
@@ -2767,19 +2706,19 @@
       <c r="A95" s="3"/>
       <c r="B95" s="9"/>
       <c r="C95" s="13" t="e">
-        <f>VLOOKUP(D95,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="9"/>
       <c r="F95" s="13" t="e">
-        <f>VLOOKUP(G95,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="9"/>
       <c r="I95" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J95" s="3"/>
@@ -2788,19 +2727,19 @@
       <c r="A96" s="3"/>
       <c r="B96" s="9"/>
       <c r="C96" s="13" t="e">
-        <f>VLOOKUP(D96,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="9"/>
       <c r="F96" s="13" t="e">
-        <f>VLOOKUP(G96,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G96" s="19"/>
       <c r="H96" s="9"/>
       <c r="I96" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J96" s="3"/>
@@ -2809,19 +2748,19 @@
       <c r="A97" s="3"/>
       <c r="B97" s="9"/>
       <c r="C97" s="13" t="e">
-        <f>VLOOKUP(D97,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="9"/>
       <c r="F97" s="13" t="e">
-        <f>VLOOKUP(G97,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="9"/>
       <c r="I97" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J97" s="3"/>
@@ -2830,19 +2769,19 @@
       <c r="A98" s="3"/>
       <c r="B98" s="9"/>
       <c r="C98" s="13" t="e">
-        <f>VLOOKUP(D98,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="9"/>
       <c r="F98" s="13" t="e">
-        <f>VLOOKUP(G98,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="9"/>
       <c r="I98" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J98" s="3"/>
@@ -2851,19 +2790,19 @@
       <c r="A99" s="3"/>
       <c r="B99" s="9"/>
       <c r="C99" s="13" t="e">
-        <f>VLOOKUP(D99,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="9"/>
       <c r="F99" s="13" t="e">
-        <f>VLOOKUP(G99,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="9"/>
       <c r="I99" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J99" s="3"/>
@@ -2872,19 +2811,19 @@
       <c r="A100" s="3"/>
       <c r="B100" s="9"/>
       <c r="C100" s="13" t="e">
-        <f>VLOOKUP(D100,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="9"/>
       <c r="F100" s="13" t="e">
-        <f>VLOOKUP(G100,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G100" s="19"/>
       <c r="H100" s="9"/>
       <c r="I100" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J100" s="3"/>
@@ -2893,19 +2832,19 @@
       <c r="A101" s="3"/>
       <c r="B101" s="9"/>
       <c r="C101" s="13" t="e">
-        <f>VLOOKUP(D101,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="9"/>
       <c r="F101" s="13" t="e">
-        <f>VLOOKUP(G101,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="9"/>
       <c r="I101" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J101" s="3"/>
@@ -2914,19 +2853,19 @@
       <c r="A102" s="3"/>
       <c r="B102" s="9"/>
       <c r="C102" s="13" t="e">
-        <f>VLOOKUP(D102,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="9"/>
       <c r="F102" s="13" t="e">
-        <f>VLOOKUP(G102,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G102" s="19"/>
       <c r="H102" s="9"/>
       <c r="I102" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J102" s="3"/>
@@ -2935,19 +2874,19 @@
       <c r="A103" s="3"/>
       <c r="B103" s="9"/>
       <c r="C103" s="13" t="e">
-        <f>VLOOKUP(D103,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="9"/>
       <c r="F103" s="13" t="e">
-        <f>VLOOKUP(G103,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G103" s="18"/>
       <c r="H103" s="9"/>
       <c r="I103" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J103" s="3"/>
@@ -2956,19 +2895,19 @@
       <c r="A104" s="3"/>
       <c r="B104" s="9"/>
       <c r="C104" s="13" t="e">
-        <f>VLOOKUP(D104,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="9"/>
       <c r="F104" s="13" t="e">
-        <f>VLOOKUP(G104,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G104" s="19"/>
       <c r="H104" s="9"/>
       <c r="I104" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J104" s="3"/>
@@ -2977,19 +2916,19 @@
       <c r="A105" s="3"/>
       <c r="B105" s="9"/>
       <c r="C105" s="13" t="e">
-        <f>VLOOKUP(D105,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="9"/>
       <c r="F105" s="13" t="e">
-        <f>VLOOKUP(G105,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G105" s="18"/>
       <c r="H105" s="9"/>
       <c r="I105" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J105" s="3"/>
@@ -2998,19 +2937,19 @@
       <c r="A106" s="3"/>
       <c r="B106" s="9"/>
       <c r="C106" s="13" t="e">
-        <f>VLOOKUP(D106,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="9"/>
       <c r="F106" s="13" t="e">
-        <f>VLOOKUP(G106,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G106" s="19"/>
       <c r="H106" s="9"/>
       <c r="I106" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J106" s="3"/>
@@ -3019,19 +2958,19 @@
       <c r="A107" s="3"/>
       <c r="B107" s="9"/>
       <c r="C107" s="13" t="e">
-        <f>VLOOKUP(D107,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="9"/>
       <c r="F107" s="13" t="e">
-        <f>VLOOKUP(G107,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G107" s="18"/>
       <c r="H107" s="9"/>
       <c r="I107" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J107" s="3"/>
@@ -3040,19 +2979,19 @@
       <c r="A108" s="3"/>
       <c r="B108" s="9"/>
       <c r="C108" s="13" t="e">
-        <f>VLOOKUP(D108,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="9"/>
       <c r="F108" s="13" t="e">
-        <f>VLOOKUP(G108,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G108" s="19"/>
       <c r="H108" s="9"/>
       <c r="I108" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J108" s="3"/>
@@ -3061,19 +3000,19 @@
       <c r="A109" s="3"/>
       <c r="B109" s="9"/>
       <c r="C109" s="13" t="e">
-        <f>VLOOKUP(D109,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="9"/>
       <c r="F109" s="13" t="e">
-        <f>VLOOKUP(G109,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G109" s="18"/>
       <c r="H109" s="9"/>
       <c r="I109" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J109" s="3"/>
@@ -3082,19 +3021,19 @@
       <c r="A110" s="3"/>
       <c r="B110" s="9"/>
       <c r="C110" s="13" t="e">
-        <f>VLOOKUP(D110,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="9"/>
       <c r="F110" s="13" t="e">
-        <f>VLOOKUP(G110,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G110" s="19"/>
       <c r="H110" s="9"/>
       <c r="I110" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J110" s="3"/>
@@ -3103,19 +3042,19 @@
       <c r="A111" s="3"/>
       <c r="B111" s="9"/>
       <c r="C111" s="13" t="e">
-        <f>VLOOKUP(D111,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="9"/>
       <c r="F111" s="13" t="e">
-        <f>VLOOKUP(G111,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G111" s="18"/>
       <c r="H111" s="9"/>
       <c r="I111" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J111" s="3"/>
@@ -3124,19 +3063,19 @@
       <c r="A112" s="3"/>
       <c r="B112" s="9"/>
       <c r="C112" s="13" t="e">
-        <f>VLOOKUP(D112,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="9"/>
       <c r="F112" s="13" t="e">
-        <f>VLOOKUP(G112,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G112" s="19"/>
       <c r="H112" s="9"/>
       <c r="I112" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J112" s="3"/>
@@ -3145,19 +3084,19 @@
       <c r="A113" s="3"/>
       <c r="B113" s="9"/>
       <c r="C113" s="13" t="e">
-        <f>VLOOKUP(D113,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="9"/>
       <c r="F113" s="13" t="e">
-        <f>VLOOKUP(G113,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G113" s="18"/>
       <c r="H113" s="9"/>
       <c r="I113" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J113" s="3"/>
@@ -3166,19 +3105,19 @@
       <c r="A114" s="3"/>
       <c r="B114" s="9"/>
       <c r="C114" s="13" t="e">
-        <f>VLOOKUP(D114,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="9"/>
       <c r="F114" s="13" t="e">
-        <f>VLOOKUP(G114,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G114" s="19"/>
       <c r="H114" s="9"/>
       <c r="I114" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J114" s="3"/>
@@ -3187,19 +3126,19 @@
       <c r="A115" s="3"/>
       <c r="B115" s="9"/>
       <c r="C115" s="13" t="e">
-        <f>VLOOKUP(D115,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="9"/>
       <c r="F115" s="13" t="e">
-        <f>VLOOKUP(G115,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G115" s="18"/>
       <c r="H115" s="9"/>
       <c r="I115" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J115" s="3"/>
@@ -3208,19 +3147,19 @@
       <c r="A116" s="3"/>
       <c r="B116" s="9"/>
       <c r="C116" s="13" t="e">
-        <f>VLOOKUP(D116,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="9"/>
       <c r="F116" s="13" t="e">
-        <f>VLOOKUP(G116,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G116" s="19"/>
       <c r="H116" s="9"/>
       <c r="I116" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J116" s="3"/>
@@ -3229,19 +3168,19 @@
       <c r="A117" s="3"/>
       <c r="B117" s="9"/>
       <c r="C117" s="13" t="e">
-        <f>VLOOKUP(D117,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="9"/>
       <c r="F117" s="13" t="e">
-        <f>VLOOKUP(G117,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G117" s="18"/>
       <c r="H117" s="9"/>
       <c r="I117" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J117" s="3"/>
@@ -3250,19 +3189,19 @@
       <c r="A118" s="3"/>
       <c r="B118" s="9"/>
       <c r="C118" s="13" t="e">
-        <f>VLOOKUP(D118,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="9"/>
       <c r="F118" s="13" t="e">
-        <f>VLOOKUP(G118,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G118" s="19"/>
       <c r="H118" s="9"/>
       <c r="I118" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J118" s="3"/>
@@ -3271,19 +3210,19 @@
       <c r="A119" s="3"/>
       <c r="B119" s="9"/>
       <c r="C119" s="13" t="e">
-        <f>VLOOKUP(D119,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="9"/>
       <c r="F119" s="13" t="e">
-        <f>VLOOKUP(G119,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G119" s="18"/>
       <c r="H119" s="9"/>
       <c r="I119" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J119" s="3"/>
@@ -3292,19 +3231,19 @@
       <c r="A120" s="3"/>
       <c r="B120" s="9"/>
       <c r="C120" s="13" t="e">
-        <f>VLOOKUP(D120,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="9"/>
       <c r="F120" s="13" t="e">
-        <f>VLOOKUP(G120,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G120" s="19"/>
       <c r="H120" s="9"/>
       <c r="I120" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J120" s="3"/>
@@ -3313,19 +3252,19 @@
       <c r="A121" s="3"/>
       <c r="B121" s="9"/>
       <c r="C121" s="13" t="e">
-        <f>VLOOKUP(D121,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="9"/>
       <c r="F121" s="13" t="e">
-        <f>VLOOKUP(G121,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G121" s="18"/>
       <c r="H121" s="9"/>
       <c r="I121" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J121" s="3"/>
@@ -3334,19 +3273,19 @@
       <c r="A122" s="3"/>
       <c r="B122" s="9"/>
       <c r="C122" s="13" t="e">
-        <f>VLOOKUP(D122,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="9"/>
       <c r="F122" s="13" t="e">
-        <f>VLOOKUP(G122,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G122" s="19"/>
       <c r="H122" s="9"/>
       <c r="I122" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J122" s="3"/>
@@ -3355,19 +3294,19 @@
       <c r="A123" s="3"/>
       <c r="B123" s="9"/>
       <c r="C123" s="13" t="e">
-        <f>VLOOKUP(D123,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="9"/>
       <c r="F123" s="13" t="e">
-        <f>VLOOKUP(G123,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G123" s="18"/>
       <c r="H123" s="9"/>
       <c r="I123" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J123" s="3"/>
@@ -3376,19 +3315,19 @@
       <c r="A124" s="3"/>
       <c r="B124" s="9"/>
       <c r="C124" s="13" t="e">
-        <f>VLOOKUP(D124,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="9"/>
       <c r="F124" s="13" t="e">
-        <f>VLOOKUP(G124,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G124" s="19"/>
       <c r="H124" s="9"/>
       <c r="I124" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J124" s="3"/>
@@ -3397,19 +3336,19 @@
       <c r="A125" s="3"/>
       <c r="B125" s="9"/>
       <c r="C125" s="13" t="e">
-        <f>VLOOKUP(D125,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="9"/>
       <c r="F125" s="13" t="e">
-        <f>VLOOKUP(G125,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G125" s="18"/>
       <c r="H125" s="9"/>
       <c r="I125" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J125" s="3"/>
@@ -3418,19 +3357,19 @@
       <c r="A126" s="3"/>
       <c r="B126" s="9"/>
       <c r="C126" s="13" t="e">
-        <f>VLOOKUP(D126,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="9"/>
       <c r="F126" s="13" t="e">
-        <f>VLOOKUP(G126,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G126" s="19"/>
       <c r="H126" s="9"/>
       <c r="I126" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J126" s="3"/>
@@ -3439,19 +3378,19 @@
       <c r="A127" s="3"/>
       <c r="B127" s="9"/>
       <c r="C127" s="13" t="e">
-        <f>VLOOKUP(D127,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="9"/>
       <c r="F127" s="13" t="e">
-        <f>VLOOKUP(G127,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G127" s="18"/>
       <c r="H127" s="9"/>
       <c r="I127" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J127" s="3"/>
@@ -3460,19 +3399,19 @@
       <c r="A128" s="3"/>
       <c r="B128" s="9"/>
       <c r="C128" s="13" t="e">
-        <f>VLOOKUP(D128,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="9"/>
       <c r="F128" s="13" t="e">
-        <f>VLOOKUP(G128,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G128" s="19"/>
       <c r="H128" s="9"/>
       <c r="I128" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J128" s="3"/>
@@ -3481,19 +3420,19 @@
       <c r="A129" s="3"/>
       <c r="B129" s="9"/>
       <c r="C129" s="13" t="e">
-        <f>VLOOKUP(D129,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="9"/>
       <c r="F129" s="13" t="e">
-        <f>VLOOKUP(G129,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G129" s="18"/>
       <c r="H129" s="9"/>
       <c r="I129" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="J129" s="3"/>
@@ -3502,19 +3441,19 @@
       <c r="A130" s="3"/>
       <c r="B130" s="9"/>
       <c r="C130" s="13" t="e">
-        <f>VLOOKUP(D130,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="9"/>
       <c r="F130" s="13" t="e">
-        <f>VLOOKUP(G130,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G130" s="19"/>
       <c r="H130" s="9"/>
       <c r="I130" s="3" t="e">
-        <f t="shared" ref="I130:I193" si="2">VLOOKUP(J130,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I130:I193" si="6">VLOOKUP(J130,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="J130" s="3"/>
@@ -3523,19 +3462,19 @@
       <c r="A131" s="3"/>
       <c r="B131" s="9"/>
       <c r="C131" s="13" t="e">
-        <f>VLOOKUP(D131,Tabla_TIBAU,2,)</f>
+        <f t="shared" ref="C131:C194" si="7">VLOOKUP(D131,Tabla_TIBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="9"/>
       <c r="F131" s="13" t="e">
-        <f>VLOOKUP(G131,Tabla_TIPOINI,2,)</f>
+        <f t="shared" ref="F131:F194" si="8">VLOOKUP(G131,Tabla_TIPOINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G131" s="18"/>
       <c r="H131" s="9"/>
       <c r="I131" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J131" s="3"/>
@@ -3544,19 +3483,19 @@
       <c r="A132" s="3"/>
       <c r="B132" s="9"/>
       <c r="C132" s="13" t="e">
-        <f>VLOOKUP(D132,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="9"/>
       <c r="F132" s="13" t="e">
-        <f>VLOOKUP(G132,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G132" s="19"/>
       <c r="H132" s="9"/>
       <c r="I132" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J132" s="3"/>
@@ -3565,19 +3504,19 @@
       <c r="A133" s="3"/>
       <c r="B133" s="9"/>
       <c r="C133" s="13" t="e">
-        <f>VLOOKUP(D133,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="9"/>
       <c r="F133" s="13" t="e">
-        <f>VLOOKUP(G133,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G133" s="18"/>
       <c r="H133" s="9"/>
       <c r="I133" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J133" s="3"/>
@@ -3586,19 +3525,19 @@
       <c r="A134" s="3"/>
       <c r="B134" s="9"/>
       <c r="C134" s="13" t="e">
-        <f>VLOOKUP(D134,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="9"/>
       <c r="F134" s="13" t="e">
-        <f>VLOOKUP(G134,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G134" s="19"/>
       <c r="H134" s="9"/>
       <c r="I134" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J134" s="3"/>
@@ -3607,19 +3546,19 @@
       <c r="A135" s="3"/>
       <c r="B135" s="9"/>
       <c r="C135" s="13" t="e">
-        <f>VLOOKUP(D135,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="9"/>
       <c r="F135" s="13" t="e">
-        <f>VLOOKUP(G135,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G135" s="18"/>
       <c r="H135" s="9"/>
       <c r="I135" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J135" s="3"/>
@@ -3628,19 +3567,19 @@
       <c r="A136" s="3"/>
       <c r="B136" s="9"/>
       <c r="C136" s="13" t="e">
-        <f>VLOOKUP(D136,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="9"/>
       <c r="F136" s="13" t="e">
-        <f>VLOOKUP(G136,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G136" s="19"/>
       <c r="H136" s="9"/>
       <c r="I136" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J136" s="3"/>
@@ -3649,19 +3588,19 @@
       <c r="A137" s="3"/>
       <c r="B137" s="9"/>
       <c r="C137" s="13" t="e">
-        <f>VLOOKUP(D137,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="9"/>
       <c r="F137" s="13" t="e">
-        <f>VLOOKUP(G137,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G137" s="18"/>
       <c r="H137" s="9"/>
       <c r="I137" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J137" s="3"/>
@@ -3670,19 +3609,19 @@
       <c r="A138" s="3"/>
       <c r="B138" s="9"/>
       <c r="C138" s="13" t="e">
-        <f>VLOOKUP(D138,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="9"/>
       <c r="F138" s="13" t="e">
-        <f>VLOOKUP(G138,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G138" s="19"/>
       <c r="H138" s="9"/>
       <c r="I138" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J138" s="3"/>
@@ -3691,19 +3630,19 @@
       <c r="A139" s="3"/>
       <c r="B139" s="9"/>
       <c r="C139" s="13" t="e">
-        <f>VLOOKUP(D139,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="9"/>
       <c r="F139" s="13" t="e">
-        <f>VLOOKUP(G139,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G139" s="18"/>
       <c r="H139" s="9"/>
       <c r="I139" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J139" s="3"/>
@@ -3712,19 +3651,19 @@
       <c r="A140" s="3"/>
       <c r="B140" s="9"/>
       <c r="C140" s="13" t="e">
-        <f>VLOOKUP(D140,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="9"/>
       <c r="F140" s="13" t="e">
-        <f>VLOOKUP(G140,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G140" s="19"/>
       <c r="H140" s="9"/>
       <c r="I140" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J140" s="3"/>
@@ -3733,19 +3672,19 @@
       <c r="A141" s="3"/>
       <c r="B141" s="9"/>
       <c r="C141" s="13" t="e">
-        <f>VLOOKUP(D141,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="9"/>
       <c r="F141" s="13" t="e">
-        <f>VLOOKUP(G141,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G141" s="18"/>
       <c r="H141" s="9"/>
       <c r="I141" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J141" s="3"/>
@@ -3754,19 +3693,19 @@
       <c r="A142" s="3"/>
       <c r="B142" s="9"/>
       <c r="C142" s="13" t="e">
-        <f>VLOOKUP(D142,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="9"/>
       <c r="F142" s="13" t="e">
-        <f>VLOOKUP(G142,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G142" s="19"/>
       <c r="H142" s="9"/>
       <c r="I142" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J142" s="3"/>
@@ -3775,19 +3714,19 @@
       <c r="A143" s="3"/>
       <c r="B143" s="9"/>
       <c r="C143" s="13" t="e">
-        <f>VLOOKUP(D143,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="9"/>
       <c r="F143" s="13" t="e">
-        <f>VLOOKUP(G143,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G143" s="18"/>
       <c r="H143" s="9"/>
       <c r="I143" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J143" s="3"/>
@@ -3796,19 +3735,19 @@
       <c r="A144" s="3"/>
       <c r="B144" s="9"/>
       <c r="C144" s="13" t="e">
-        <f>VLOOKUP(D144,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="9"/>
       <c r="F144" s="13" t="e">
-        <f>VLOOKUP(G144,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G144" s="19"/>
       <c r="H144" s="9"/>
       <c r="I144" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J144" s="3"/>
@@ -3817,19 +3756,19 @@
       <c r="A145" s="3"/>
       <c r="B145" s="9"/>
       <c r="C145" s="13" t="e">
-        <f>VLOOKUP(D145,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="9"/>
       <c r="F145" s="13" t="e">
-        <f>VLOOKUP(G145,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G145" s="18"/>
       <c r="H145" s="9"/>
       <c r="I145" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J145" s="3"/>
@@ -3838,19 +3777,19 @@
       <c r="A146" s="3"/>
       <c r="B146" s="9"/>
       <c r="C146" s="13" t="e">
-        <f>VLOOKUP(D146,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="9"/>
       <c r="F146" s="13" t="e">
-        <f>VLOOKUP(G146,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G146" s="19"/>
       <c r="H146" s="9"/>
       <c r="I146" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J146" s="3"/>
@@ -3859,19 +3798,19 @@
       <c r="A147" s="3"/>
       <c r="B147" s="9"/>
       <c r="C147" s="13" t="e">
-        <f>VLOOKUP(D147,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="9"/>
       <c r="F147" s="13" t="e">
-        <f>VLOOKUP(G147,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G147" s="18"/>
       <c r="H147" s="9"/>
       <c r="I147" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J147" s="3"/>
@@ -3880,19 +3819,19 @@
       <c r="A148" s="3"/>
       <c r="B148" s="9"/>
       <c r="C148" s="13" t="e">
-        <f>VLOOKUP(D148,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="9"/>
       <c r="F148" s="13" t="e">
-        <f>VLOOKUP(G148,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G148" s="19"/>
       <c r="H148" s="9"/>
       <c r="I148" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J148" s="3"/>
@@ -3901,19 +3840,19 @@
       <c r="A149" s="3"/>
       <c r="B149" s="9"/>
       <c r="C149" s="13" t="e">
-        <f>VLOOKUP(D149,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="9"/>
       <c r="F149" s="13" t="e">
-        <f>VLOOKUP(G149,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G149" s="18"/>
       <c r="H149" s="9"/>
       <c r="I149" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J149" s="3"/>
@@ -3922,19 +3861,19 @@
       <c r="A150" s="3"/>
       <c r="B150" s="9"/>
       <c r="C150" s="13" t="e">
-        <f>VLOOKUP(D150,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="9"/>
       <c r="F150" s="13" t="e">
-        <f>VLOOKUP(G150,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G150" s="19"/>
       <c r="H150" s="9"/>
       <c r="I150" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J150" s="3"/>
@@ -3943,19 +3882,19 @@
       <c r="A151" s="3"/>
       <c r="B151" s="9"/>
       <c r="C151" s="13" t="e">
-        <f>VLOOKUP(D151,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="9"/>
       <c r="F151" s="13" t="e">
-        <f>VLOOKUP(G151,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G151" s="18"/>
       <c r="H151" s="9"/>
       <c r="I151" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J151" s="3"/>
@@ -3964,19 +3903,19 @@
       <c r="A152" s="3"/>
       <c r="B152" s="9"/>
       <c r="C152" s="13" t="e">
-        <f>VLOOKUP(D152,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="9"/>
       <c r="F152" s="13" t="e">
-        <f>VLOOKUP(G152,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G152" s="19"/>
       <c r="H152" s="9"/>
       <c r="I152" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J152" s="3"/>
@@ -3985,19 +3924,19 @@
       <c r="A153" s="3"/>
       <c r="B153" s="9"/>
       <c r="C153" s="13" t="e">
-        <f>VLOOKUP(D153,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="9"/>
       <c r="F153" s="13" t="e">
-        <f>VLOOKUP(G153,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G153" s="18"/>
       <c r="H153" s="9"/>
       <c r="I153" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J153" s="3"/>
@@ -4006,19 +3945,19 @@
       <c r="A154" s="3"/>
       <c r="B154" s="9"/>
       <c r="C154" s="13" t="e">
-        <f>VLOOKUP(D154,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="9"/>
       <c r="F154" s="13" t="e">
-        <f>VLOOKUP(G154,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G154" s="19"/>
       <c r="H154" s="9"/>
       <c r="I154" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J154" s="3"/>
@@ -4027,19 +3966,19 @@
       <c r="A155" s="3"/>
       <c r="B155" s="9"/>
       <c r="C155" s="13" t="e">
-        <f>VLOOKUP(D155,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="9"/>
       <c r="F155" s="13" t="e">
-        <f>VLOOKUP(G155,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G155" s="18"/>
       <c r="H155" s="9"/>
       <c r="I155" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J155" s="3"/>
@@ -4048,19 +3987,19 @@
       <c r="A156" s="3"/>
       <c r="B156" s="9"/>
       <c r="C156" s="13" t="e">
-        <f>VLOOKUP(D156,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="9"/>
       <c r="F156" s="13" t="e">
-        <f>VLOOKUP(G156,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G156" s="19"/>
       <c r="H156" s="9"/>
       <c r="I156" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J156" s="3"/>
@@ -4069,19 +4008,19 @@
       <c r="A157" s="3"/>
       <c r="B157" s="9"/>
       <c r="C157" s="13" t="e">
-        <f>VLOOKUP(D157,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="9"/>
       <c r="F157" s="13" t="e">
-        <f>VLOOKUP(G157,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G157" s="18"/>
       <c r="H157" s="9"/>
       <c r="I157" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J157" s="3"/>
@@ -4090,19 +4029,19 @@
       <c r="A158" s="3"/>
       <c r="B158" s="9"/>
       <c r="C158" s="13" t="e">
-        <f>VLOOKUP(D158,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="9"/>
       <c r="F158" s="13" t="e">
-        <f>VLOOKUP(G158,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G158" s="19"/>
       <c r="H158" s="9"/>
       <c r="I158" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J158" s="3"/>
@@ -4111,19 +4050,19 @@
       <c r="A159" s="3"/>
       <c r="B159" s="9"/>
       <c r="C159" s="13" t="e">
-        <f>VLOOKUP(D159,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D159" s="14"/>
       <c r="E159" s="9"/>
       <c r="F159" s="13" t="e">
-        <f>VLOOKUP(G159,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G159" s="18"/>
       <c r="H159" s="9"/>
       <c r="I159" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J159" s="3"/>
@@ -4132,19 +4071,19 @@
       <c r="A160" s="3"/>
       <c r="B160" s="9"/>
       <c r="C160" s="13" t="e">
-        <f>VLOOKUP(D160,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D160" s="15"/>
       <c r="E160" s="9"/>
       <c r="F160" s="13" t="e">
-        <f>VLOOKUP(G160,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G160" s="19"/>
       <c r="H160" s="9"/>
       <c r="I160" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J160" s="3"/>
@@ -4153,19 +4092,19 @@
       <c r="A161" s="3"/>
       <c r="B161" s="9"/>
       <c r="C161" s="13" t="e">
-        <f>VLOOKUP(D161,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D161" s="14"/>
       <c r="E161" s="9"/>
       <c r="F161" s="13" t="e">
-        <f>VLOOKUP(G161,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G161" s="18"/>
       <c r="H161" s="9"/>
       <c r="I161" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J161" s="3"/>
@@ -4174,19 +4113,19 @@
       <c r="A162" s="3"/>
       <c r="B162" s="9"/>
       <c r="C162" s="13" t="e">
-        <f>VLOOKUP(D162,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="9"/>
       <c r="F162" s="13" t="e">
-        <f>VLOOKUP(G162,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="9"/>
       <c r="I162" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J162" s="3"/>
@@ -4195,19 +4134,19 @@
       <c r="A163" s="3"/>
       <c r="B163" s="9"/>
       <c r="C163" s="13" t="e">
-        <f>VLOOKUP(D163,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="9"/>
       <c r="F163" s="13" t="e">
-        <f>VLOOKUP(G163,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G163" s="18"/>
       <c r="H163" s="9"/>
       <c r="I163" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J163" s="3"/>
@@ -4216,19 +4155,19 @@
       <c r="A164" s="3"/>
       <c r="B164" s="9"/>
       <c r="C164" s="13" t="e">
-        <f>VLOOKUP(D164,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="9"/>
       <c r="F164" s="13" t="e">
-        <f>VLOOKUP(G164,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G164" s="19"/>
       <c r="H164" s="9"/>
       <c r="I164" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J164" s="3"/>
@@ -4237,19 +4176,19 @@
       <c r="A165" s="3"/>
       <c r="B165" s="9"/>
       <c r="C165" s="13" t="e">
-        <f>VLOOKUP(D165,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="9"/>
       <c r="F165" s="13" t="e">
-        <f>VLOOKUP(G165,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G165" s="18"/>
       <c r="H165" s="9"/>
       <c r="I165" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J165" s="3"/>
@@ -4258,19 +4197,19 @@
       <c r="A166" s="3"/>
       <c r="B166" s="9"/>
       <c r="C166" s="13" t="e">
-        <f>VLOOKUP(D166,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="9"/>
       <c r="F166" s="13" t="e">
-        <f>VLOOKUP(G166,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G166" s="19"/>
       <c r="H166" s="9"/>
       <c r="I166" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J166" s="3"/>
@@ -4279,19 +4218,19 @@
       <c r="A167" s="3"/>
       <c r="B167" s="9"/>
       <c r="C167" s="13" t="e">
-        <f>VLOOKUP(D167,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D167" s="14"/>
       <c r="E167" s="9"/>
       <c r="F167" s="13" t="e">
-        <f>VLOOKUP(G167,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G167" s="18"/>
       <c r="H167" s="9"/>
       <c r="I167" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J167" s="3"/>
@@ -4300,19 +4239,19 @@
       <c r="A168" s="3"/>
       <c r="B168" s="9"/>
       <c r="C168" s="13" t="e">
-        <f>VLOOKUP(D168,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="9"/>
       <c r="F168" s="13" t="e">
-        <f>VLOOKUP(G168,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G168" s="19"/>
       <c r="H168" s="9"/>
       <c r="I168" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J168" s="3"/>
@@ -4321,19 +4260,19 @@
       <c r="A169" s="3"/>
       <c r="B169" s="9"/>
       <c r="C169" s="13" t="e">
-        <f>VLOOKUP(D169,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D169" s="14"/>
       <c r="E169" s="9"/>
       <c r="F169" s="13" t="e">
-        <f>VLOOKUP(G169,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G169" s="18"/>
       <c r="H169" s="9"/>
       <c r="I169" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J169" s="3"/>
@@ -4342,19 +4281,19 @@
       <c r="A170" s="3"/>
       <c r="B170" s="9"/>
       <c r="C170" s="13" t="e">
-        <f>VLOOKUP(D170,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="9"/>
       <c r="F170" s="13" t="e">
-        <f>VLOOKUP(G170,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G170" s="19"/>
       <c r="H170" s="9"/>
       <c r="I170" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J170" s="3"/>
@@ -4363,19 +4302,19 @@
       <c r="A171" s="3"/>
       <c r="B171" s="9"/>
       <c r="C171" s="13" t="e">
-        <f>VLOOKUP(D171,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D171" s="14"/>
       <c r="E171" s="9"/>
       <c r="F171" s="13" t="e">
-        <f>VLOOKUP(G171,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G171" s="18"/>
       <c r="H171" s="9"/>
       <c r="I171" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J171" s="3"/>
@@ -4384,19 +4323,19 @@
       <c r="A172" s="3"/>
       <c r="B172" s="9"/>
       <c r="C172" s="13" t="e">
-        <f>VLOOKUP(D172,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="9"/>
       <c r="F172" s="13" t="e">
-        <f>VLOOKUP(G172,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G172" s="19"/>
       <c r="H172" s="9"/>
       <c r="I172" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J172" s="3"/>
@@ -4405,19 +4344,19 @@
       <c r="A173" s="3"/>
       <c r="B173" s="9"/>
       <c r="C173" s="13" t="e">
-        <f>VLOOKUP(D173,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="9"/>
       <c r="F173" s="13" t="e">
-        <f>VLOOKUP(G173,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G173" s="18"/>
       <c r="H173" s="9"/>
       <c r="I173" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J173" s="3"/>
@@ -4426,19 +4365,19 @@
       <c r="A174" s="3"/>
       <c r="B174" s="9"/>
       <c r="C174" s="13" t="e">
-        <f>VLOOKUP(D174,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="9"/>
       <c r="F174" s="13" t="e">
-        <f>VLOOKUP(G174,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G174" s="19"/>
       <c r="H174" s="9"/>
       <c r="I174" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J174" s="3"/>
@@ -4447,19 +4386,19 @@
       <c r="A175" s="3"/>
       <c r="B175" s="9"/>
       <c r="C175" s="13" t="e">
-        <f>VLOOKUP(D175,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D175" s="14"/>
       <c r="E175" s="9"/>
       <c r="F175" s="13" t="e">
-        <f>VLOOKUP(G175,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G175" s="18"/>
       <c r="H175" s="9"/>
       <c r="I175" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J175" s="3"/>
@@ -4468,19 +4407,19 @@
       <c r="A176" s="3"/>
       <c r="B176" s="9"/>
       <c r="C176" s="13" t="e">
-        <f>VLOOKUP(D176,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="9"/>
       <c r="F176" s="13" t="e">
-        <f>VLOOKUP(G176,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G176" s="19"/>
       <c r="H176" s="9"/>
       <c r="I176" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J176" s="3"/>
@@ -4489,19 +4428,19 @@
       <c r="A177" s="3"/>
       <c r="B177" s="9"/>
       <c r="C177" s="13" t="e">
-        <f>VLOOKUP(D177,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D177" s="14"/>
       <c r="E177" s="9"/>
       <c r="F177" s="13" t="e">
-        <f>VLOOKUP(G177,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="9"/>
       <c r="I177" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J177" s="3"/>
@@ -4510,19 +4449,19 @@
       <c r="A178" s="3"/>
       <c r="B178" s="9"/>
       <c r="C178" s="13" t="e">
-        <f>VLOOKUP(D178,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="9"/>
       <c r="F178" s="13" t="e">
-        <f>VLOOKUP(G178,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G178" s="19"/>
       <c r="H178" s="9"/>
       <c r="I178" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J178" s="3"/>
@@ -4531,19 +4470,19 @@
       <c r="A179" s="3"/>
       <c r="B179" s="9"/>
       <c r="C179" s="13" t="e">
-        <f>VLOOKUP(D179,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D179" s="14"/>
       <c r="E179" s="9"/>
       <c r="F179" s="13" t="e">
-        <f>VLOOKUP(G179,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G179" s="18"/>
       <c r="H179" s="9"/>
       <c r="I179" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J179" s="3"/>
@@ -4552,19 +4491,19 @@
       <c r="A180" s="3"/>
       <c r="B180" s="9"/>
       <c r="C180" s="13" t="e">
-        <f>VLOOKUP(D180,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="9"/>
       <c r="F180" s="13" t="e">
-        <f>VLOOKUP(G180,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G180" s="19"/>
       <c r="H180" s="9"/>
       <c r="I180" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J180" s="3"/>
@@ -4573,19 +4512,19 @@
       <c r="A181" s="3"/>
       <c r="B181" s="9"/>
       <c r="C181" s="13" t="e">
-        <f>VLOOKUP(D181,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D181" s="14"/>
       <c r="E181" s="9"/>
       <c r="F181" s="13" t="e">
-        <f>VLOOKUP(G181,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="9"/>
       <c r="I181" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J181" s="3"/>
@@ -4594,19 +4533,19 @@
       <c r="A182" s="3"/>
       <c r="B182" s="9"/>
       <c r="C182" s="13" t="e">
-        <f>VLOOKUP(D182,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="9"/>
       <c r="F182" s="13" t="e">
-        <f>VLOOKUP(G182,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G182" s="19"/>
       <c r="H182" s="9"/>
       <c r="I182" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J182" s="3"/>
@@ -4615,19 +4554,19 @@
       <c r="A183" s="3"/>
       <c r="B183" s="9"/>
       <c r="C183" s="13" t="e">
-        <f>VLOOKUP(D183,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D183" s="14"/>
       <c r="E183" s="9"/>
       <c r="F183" s="13" t="e">
-        <f>VLOOKUP(G183,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G183" s="18"/>
       <c r="H183" s="9"/>
       <c r="I183" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J183" s="3"/>
@@ -4636,19 +4575,19 @@
       <c r="A184" s="3"/>
       <c r="B184" s="9"/>
       <c r="C184" s="13" t="e">
-        <f>VLOOKUP(D184,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="9"/>
       <c r="F184" s="13" t="e">
-        <f>VLOOKUP(G184,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G184" s="19"/>
       <c r="H184" s="9"/>
       <c r="I184" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J184" s="3"/>
@@ -4657,19 +4596,19 @@
       <c r="A185" s="3"/>
       <c r="B185" s="9"/>
       <c r="C185" s="13" t="e">
-        <f>VLOOKUP(D185,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D185" s="14"/>
       <c r="E185" s="9"/>
       <c r="F185" s="13" t="e">
-        <f>VLOOKUP(G185,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G185" s="18"/>
       <c r="H185" s="9"/>
       <c r="I185" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J185" s="3"/>
@@ -4678,19 +4617,19 @@
       <c r="A186" s="3"/>
       <c r="B186" s="9"/>
       <c r="C186" s="13" t="e">
-        <f>VLOOKUP(D186,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="9"/>
       <c r="F186" s="13" t="e">
-        <f>VLOOKUP(G186,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G186" s="19"/>
       <c r="H186" s="9"/>
       <c r="I186" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J186" s="3"/>
@@ -4699,19 +4638,19 @@
       <c r="A187" s="3"/>
       <c r="B187" s="9"/>
       <c r="C187" s="13" t="e">
-        <f>VLOOKUP(D187,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D187" s="14"/>
       <c r="E187" s="9"/>
       <c r="F187" s="13" t="e">
-        <f>VLOOKUP(G187,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G187" s="18"/>
       <c r="H187" s="9"/>
       <c r="I187" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J187" s="3"/>
@@ -4720,19 +4659,19 @@
       <c r="A188" s="3"/>
       <c r="B188" s="9"/>
       <c r="C188" s="13" t="e">
-        <f>VLOOKUP(D188,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="9"/>
       <c r="F188" s="13" t="e">
-        <f>VLOOKUP(G188,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G188" s="19"/>
       <c r="H188" s="9"/>
       <c r="I188" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J188" s="3"/>
@@ -4741,19 +4680,19 @@
       <c r="A189" s="3"/>
       <c r="B189" s="9"/>
       <c r="C189" s="13" t="e">
-        <f>VLOOKUP(D189,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D189" s="14"/>
       <c r="E189" s="9"/>
       <c r="F189" s="13" t="e">
-        <f>VLOOKUP(G189,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G189" s="18"/>
       <c r="H189" s="9"/>
       <c r="I189" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J189" s="3"/>
@@ -4762,19 +4701,19 @@
       <c r="A190" s="3"/>
       <c r="B190" s="9"/>
       <c r="C190" s="13" t="e">
-        <f>VLOOKUP(D190,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="9"/>
       <c r="F190" s="13" t="e">
-        <f>VLOOKUP(G190,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G190" s="19"/>
       <c r="H190" s="9"/>
       <c r="I190" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J190" s="3"/>
@@ -4783,19 +4722,19 @@
       <c r="A191" s="3"/>
       <c r="B191" s="9"/>
       <c r="C191" s="13" t="e">
-        <f>VLOOKUP(D191,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D191" s="14"/>
       <c r="E191" s="9"/>
       <c r="F191" s="13" t="e">
-        <f>VLOOKUP(G191,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G191" s="18"/>
       <c r="H191" s="9"/>
       <c r="I191" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J191" s="3"/>
@@ -4804,19 +4743,19 @@
       <c r="A192" s="3"/>
       <c r="B192" s="9"/>
       <c r="C192" s="13" t="e">
-        <f>VLOOKUP(D192,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="9"/>
       <c r="F192" s="13" t="e">
-        <f>VLOOKUP(G192,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G192" s="19"/>
       <c r="H192" s="9"/>
       <c r="I192" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J192" s="3"/>
@@ -4825,19 +4764,19 @@
       <c r="A193" s="3"/>
       <c r="B193" s="9"/>
       <c r="C193" s="13" t="e">
-        <f>VLOOKUP(D193,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D193" s="14"/>
       <c r="E193" s="9"/>
       <c r="F193" s="13" t="e">
-        <f>VLOOKUP(G193,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G193" s="18"/>
       <c r="H193" s="9"/>
       <c r="I193" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J193" s="3"/>
@@ -4846,19 +4785,19 @@
       <c r="A194" s="3"/>
       <c r="B194" s="9"/>
       <c r="C194" s="13" t="e">
-        <f>VLOOKUP(D194,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="9"/>
       <c r="F194" s="13" t="e">
-        <f>VLOOKUP(G194,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G194" s="19"/>
       <c r="H194" s="9"/>
       <c r="I194" s="3" t="e">
-        <f t="shared" ref="I194:I257" si="3">VLOOKUP(J194,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I194:I257" si="9">VLOOKUP(J194,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="J194" s="3"/>
@@ -4867,19 +4806,19 @@
       <c r="A195" s="3"/>
       <c r="B195" s="9"/>
       <c r="C195" s="13" t="e">
-        <f>VLOOKUP(D195,Tabla_TIBAU,2,)</f>
+        <f t="shared" ref="C195:C258" si="10">VLOOKUP(D195,Tabla_TIBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D195" s="14"/>
       <c r="E195" s="9"/>
       <c r="F195" s="13" t="e">
-        <f>VLOOKUP(G195,Tabla_TIPOINI,2,)</f>
+        <f t="shared" ref="F195:F258" si="11">VLOOKUP(G195,Tabla_TIPOINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G195" s="18"/>
       <c r="H195" s="9"/>
       <c r="I195" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J195" s="3"/>
@@ -4888,19 +4827,19 @@
       <c r="A196" s="3"/>
       <c r="B196" s="9"/>
       <c r="C196" s="13" t="e">
-        <f>VLOOKUP(D196,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="9"/>
       <c r="F196" s="13" t="e">
-        <f>VLOOKUP(G196,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G196" s="19"/>
       <c r="H196" s="9"/>
       <c r="I196" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J196" s="3"/>
@@ -4909,19 +4848,19 @@
       <c r="A197" s="3"/>
       <c r="B197" s="9"/>
       <c r="C197" s="13" t="e">
-        <f>VLOOKUP(D197,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D197" s="14"/>
       <c r="E197" s="9"/>
       <c r="F197" s="13" t="e">
-        <f>VLOOKUP(G197,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G197" s="18"/>
       <c r="H197" s="9"/>
       <c r="I197" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J197" s="3"/>
@@ -4930,19 +4869,19 @@
       <c r="A198" s="3"/>
       <c r="B198" s="9"/>
       <c r="C198" s="13" t="e">
-        <f>VLOOKUP(D198,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="9"/>
       <c r="F198" s="13" t="e">
-        <f>VLOOKUP(G198,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G198" s="19"/>
       <c r="H198" s="9"/>
       <c r="I198" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J198" s="3"/>
@@ -4951,19 +4890,19 @@
       <c r="A199" s="3"/>
       <c r="B199" s="9"/>
       <c r="C199" s="13" t="e">
-        <f>VLOOKUP(D199,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D199" s="14"/>
       <c r="E199" s="9"/>
       <c r="F199" s="13" t="e">
-        <f>VLOOKUP(G199,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G199" s="18"/>
       <c r="H199" s="9"/>
       <c r="I199" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J199" s="3"/>
@@ -4972,19 +4911,19 @@
       <c r="A200" s="3"/>
       <c r="B200" s="9"/>
       <c r="C200" s="13" t="e">
-        <f>VLOOKUP(D200,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="9"/>
       <c r="F200" s="13" t="e">
-        <f>VLOOKUP(G200,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G200" s="19"/>
       <c r="H200" s="9"/>
       <c r="I200" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J200" s="3"/>
@@ -4993,19 +4932,19 @@
       <c r="A201" s="3"/>
       <c r="B201" s="9"/>
       <c r="C201" s="13" t="e">
-        <f>VLOOKUP(D201,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D201" s="14"/>
       <c r="E201" s="9"/>
       <c r="F201" s="13" t="e">
-        <f>VLOOKUP(G201,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G201" s="18"/>
       <c r="H201" s="9"/>
       <c r="I201" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J201" s="3"/>
@@ -5014,19 +4953,19 @@
       <c r="A202" s="3"/>
       <c r="B202" s="9"/>
       <c r="C202" s="13" t="e">
-        <f>VLOOKUP(D202,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="9"/>
       <c r="F202" s="13" t="e">
-        <f>VLOOKUP(G202,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G202" s="19"/>
       <c r="H202" s="9"/>
       <c r="I202" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J202" s="3"/>
@@ -5035,19 +4974,19 @@
       <c r="A203" s="3"/>
       <c r="B203" s="9"/>
       <c r="C203" s="13" t="e">
-        <f>VLOOKUP(D203,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D203" s="14"/>
       <c r="E203" s="9"/>
       <c r="F203" s="13" t="e">
-        <f>VLOOKUP(G203,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G203" s="18"/>
       <c r="H203" s="9"/>
       <c r="I203" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J203" s="3"/>
@@ -5056,19 +4995,19 @@
       <c r="A204" s="3"/>
       <c r="B204" s="9"/>
       <c r="C204" s="13" t="e">
-        <f>VLOOKUP(D204,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="9"/>
       <c r="F204" s="13" t="e">
-        <f>VLOOKUP(G204,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G204" s="19"/>
       <c r="H204" s="9"/>
       <c r="I204" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J204" s="3"/>
@@ -5077,19 +5016,19 @@
       <c r="A205" s="3"/>
       <c r="B205" s="9"/>
       <c r="C205" s="13" t="e">
-        <f>VLOOKUP(D205,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D205" s="14"/>
       <c r="E205" s="9"/>
       <c r="F205" s="13" t="e">
-        <f>VLOOKUP(G205,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G205" s="18"/>
       <c r="H205" s="9"/>
       <c r="I205" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J205" s="3"/>
@@ -5098,19 +5037,19 @@
       <c r="A206" s="3"/>
       <c r="B206" s="9"/>
       <c r="C206" s="13" t="e">
-        <f>VLOOKUP(D206,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="9"/>
       <c r="F206" s="13" t="e">
-        <f>VLOOKUP(G206,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G206" s="19"/>
       <c r="H206" s="9"/>
       <c r="I206" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J206" s="3"/>
@@ -5119,19 +5058,19 @@
       <c r="A207" s="3"/>
       <c r="B207" s="9"/>
       <c r="C207" s="13" t="e">
-        <f>VLOOKUP(D207,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D207" s="14"/>
       <c r="E207" s="9"/>
       <c r="F207" s="13" t="e">
-        <f>VLOOKUP(G207,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G207" s="18"/>
       <c r="H207" s="9"/>
       <c r="I207" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J207" s="3"/>
@@ -5140,19 +5079,19 @@
       <c r="A208" s="3"/>
       <c r="B208" s="9"/>
       <c r="C208" s="13" t="e">
-        <f>VLOOKUP(D208,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="9"/>
       <c r="F208" s="13" t="e">
-        <f>VLOOKUP(G208,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G208" s="19"/>
       <c r="H208" s="9"/>
       <c r="I208" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J208" s="3"/>
@@ -5161,19 +5100,19 @@
       <c r="A209" s="3"/>
       <c r="B209" s="9"/>
       <c r="C209" s="13" t="e">
-        <f>VLOOKUP(D209,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D209" s="14"/>
       <c r="E209" s="9"/>
       <c r="F209" s="13" t="e">
-        <f>VLOOKUP(G209,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G209" s="18"/>
       <c r="H209" s="9"/>
       <c r="I209" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J209" s="3"/>
@@ -5182,19 +5121,19 @@
       <c r="A210" s="3"/>
       <c r="B210" s="9"/>
       <c r="C210" s="13" t="e">
-        <f>VLOOKUP(D210,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="9"/>
       <c r="F210" s="13" t="e">
-        <f>VLOOKUP(G210,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G210" s="19"/>
       <c r="H210" s="9"/>
       <c r="I210" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J210" s="3"/>
@@ -5203,19 +5142,19 @@
       <c r="A211" s="3"/>
       <c r="B211" s="9"/>
       <c r="C211" s="13" t="e">
-        <f>VLOOKUP(D211,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D211" s="14"/>
       <c r="E211" s="9"/>
       <c r="F211" s="13" t="e">
-        <f>VLOOKUP(G211,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G211" s="18"/>
       <c r="H211" s="9"/>
       <c r="I211" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J211" s="3"/>
@@ -5224,19 +5163,19 @@
       <c r="A212" s="3"/>
       <c r="B212" s="9"/>
       <c r="C212" s="13" t="e">
-        <f>VLOOKUP(D212,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="9"/>
       <c r="F212" s="13" t="e">
-        <f>VLOOKUP(G212,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G212" s="19"/>
       <c r="H212" s="9"/>
       <c r="I212" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J212" s="3"/>
@@ -5245,19 +5184,19 @@
       <c r="A213" s="3"/>
       <c r="B213" s="9"/>
       <c r="C213" s="13" t="e">
-        <f>VLOOKUP(D213,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D213" s="14"/>
       <c r="E213" s="9"/>
       <c r="F213" s="13" t="e">
-        <f>VLOOKUP(G213,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G213" s="18"/>
       <c r="H213" s="9"/>
       <c r="I213" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J213" s="3"/>
@@ -5266,19 +5205,19 @@
       <c r="A214" s="3"/>
       <c r="B214" s="9"/>
       <c r="C214" s="13" t="e">
-        <f>VLOOKUP(D214,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="9"/>
       <c r="F214" s="13" t="e">
-        <f>VLOOKUP(G214,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G214" s="19"/>
       <c r="H214" s="9"/>
       <c r="I214" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J214" s="3"/>
@@ -5287,19 +5226,19 @@
       <c r="A215" s="3"/>
       <c r="B215" s="9"/>
       <c r="C215" s="13" t="e">
-        <f>VLOOKUP(D215,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D215" s="14"/>
       <c r="E215" s="9"/>
       <c r="F215" s="13" t="e">
-        <f>VLOOKUP(G215,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G215" s="18"/>
       <c r="H215" s="9"/>
       <c r="I215" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J215" s="3"/>
@@ -5308,19 +5247,19 @@
       <c r="A216" s="3"/>
       <c r="B216" s="9"/>
       <c r="C216" s="13" t="e">
-        <f>VLOOKUP(D216,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="9"/>
       <c r="F216" s="13" t="e">
-        <f>VLOOKUP(G216,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G216" s="19"/>
       <c r="H216" s="9"/>
       <c r="I216" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J216" s="3"/>
@@ -5329,19 +5268,19 @@
       <c r="A217" s="3"/>
       <c r="B217" s="9"/>
       <c r="C217" s="13" t="e">
-        <f>VLOOKUP(D217,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D217" s="14"/>
       <c r="E217" s="9"/>
       <c r="F217" s="13" t="e">
-        <f>VLOOKUP(G217,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G217" s="18"/>
       <c r="H217" s="9"/>
       <c r="I217" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J217" s="3"/>
@@ -5350,19 +5289,19 @@
       <c r="A218" s="3"/>
       <c r="B218" s="9"/>
       <c r="C218" s="13" t="e">
-        <f>VLOOKUP(D218,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="9"/>
       <c r="F218" s="13" t="e">
-        <f>VLOOKUP(G218,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="9"/>
       <c r="I218" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J218" s="3"/>
@@ -5371,19 +5310,19 @@
       <c r="A219" s="3"/>
       <c r="B219" s="9"/>
       <c r="C219" s="13" t="e">
-        <f>VLOOKUP(D219,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D219" s="14"/>
       <c r="E219" s="9"/>
       <c r="F219" s="13" t="e">
-        <f>VLOOKUP(G219,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G219" s="18"/>
       <c r="H219" s="9"/>
       <c r="I219" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J219" s="3"/>
@@ -5392,19 +5331,19 @@
       <c r="A220" s="3"/>
       <c r="B220" s="9"/>
       <c r="C220" s="13" t="e">
-        <f>VLOOKUP(D220,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="9"/>
       <c r="F220" s="13" t="e">
-        <f>VLOOKUP(G220,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G220" s="19"/>
       <c r="H220" s="9"/>
       <c r="I220" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J220" s="3"/>
@@ -5413,19 +5352,19 @@
       <c r="A221" s="3"/>
       <c r="B221" s="9"/>
       <c r="C221" s="13" t="e">
-        <f>VLOOKUP(D221,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D221" s="14"/>
       <c r="E221" s="9"/>
       <c r="F221" s="13" t="e">
-        <f>VLOOKUP(G221,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G221" s="18"/>
       <c r="H221" s="9"/>
       <c r="I221" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J221" s="3"/>
@@ -5434,19 +5373,19 @@
       <c r="A222" s="3"/>
       <c r="B222" s="9"/>
       <c r="C222" s="13" t="e">
-        <f>VLOOKUP(D222,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="9"/>
       <c r="F222" s="13" t="e">
-        <f>VLOOKUP(G222,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G222" s="19"/>
       <c r="H222" s="9"/>
       <c r="I222" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J222" s="3"/>
@@ -5455,19 +5394,19 @@
       <c r="A223" s="3"/>
       <c r="B223" s="9"/>
       <c r="C223" s="13" t="e">
-        <f>VLOOKUP(D223,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D223" s="14"/>
       <c r="E223" s="9"/>
       <c r="F223" s="13" t="e">
-        <f>VLOOKUP(G223,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G223" s="18"/>
       <c r="H223" s="9"/>
       <c r="I223" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J223" s="3"/>
@@ -5476,19 +5415,19 @@
       <c r="A224" s="3"/>
       <c r="B224" s="9"/>
       <c r="C224" s="13" t="e">
-        <f>VLOOKUP(D224,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="9"/>
       <c r="F224" s="13" t="e">
-        <f>VLOOKUP(G224,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G224" s="19"/>
       <c r="H224" s="9"/>
       <c r="I224" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J224" s="3"/>
@@ -5497,19 +5436,19 @@
       <c r="A225" s="3"/>
       <c r="B225" s="9"/>
       <c r="C225" s="13" t="e">
-        <f>VLOOKUP(D225,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D225" s="14"/>
       <c r="E225" s="9"/>
       <c r="F225" s="13" t="e">
-        <f>VLOOKUP(G225,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="18"/>
       <c r="H225" s="9"/>
       <c r="I225" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J225" s="3"/>
@@ -5518,19 +5457,19 @@
       <c r="A226" s="3"/>
       <c r="B226" s="9"/>
       <c r="C226" s="13" t="e">
-        <f>VLOOKUP(D226,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="9"/>
       <c r="F226" s="13" t="e">
-        <f>VLOOKUP(G226,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="19"/>
       <c r="H226" s="9"/>
       <c r="I226" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J226" s="3"/>
@@ -5539,19 +5478,19 @@
       <c r="A227" s="3"/>
       <c r="B227" s="9"/>
       <c r="C227" s="13" t="e">
-        <f>VLOOKUP(D227,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D227" s="14"/>
       <c r="E227" s="9"/>
       <c r="F227" s="13" t="e">
-        <f>VLOOKUP(G227,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="18"/>
       <c r="H227" s="9"/>
       <c r="I227" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J227" s="3"/>
@@ -5560,19 +5499,19 @@
       <c r="A228" s="3"/>
       <c r="B228" s="9"/>
       <c r="C228" s="13" t="e">
-        <f>VLOOKUP(D228,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="9"/>
       <c r="F228" s="13" t="e">
-        <f>VLOOKUP(G228,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="19"/>
       <c r="H228" s="9"/>
       <c r="I228" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J228" s="3"/>
@@ -5581,19 +5520,19 @@
       <c r="A229" s="3"/>
       <c r="B229" s="9"/>
       <c r="C229" s="13" t="e">
-        <f>VLOOKUP(D229,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D229" s="14"/>
       <c r="E229" s="9"/>
       <c r="F229" s="13" t="e">
-        <f>VLOOKUP(G229,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="18"/>
       <c r="H229" s="9"/>
       <c r="I229" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J229" s="3"/>
@@ -5602,19 +5541,19 @@
       <c r="A230" s="3"/>
       <c r="B230" s="9"/>
       <c r="C230" s="13" t="e">
-        <f>VLOOKUP(D230,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="9"/>
       <c r="F230" s="13" t="e">
-        <f>VLOOKUP(G230,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="19"/>
       <c r="H230" s="9"/>
       <c r="I230" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J230" s="3"/>
@@ -5623,19 +5562,19 @@
       <c r="A231" s="3"/>
       <c r="B231" s="9"/>
       <c r="C231" s="13" t="e">
-        <f>VLOOKUP(D231,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D231" s="14"/>
       <c r="E231" s="9"/>
       <c r="F231" s="13" t="e">
-        <f>VLOOKUP(G231,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="18"/>
       <c r="H231" s="9"/>
       <c r="I231" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J231" s="3"/>
@@ -5644,19 +5583,19 @@
       <c r="A232" s="3"/>
       <c r="B232" s="9"/>
       <c r="C232" s="13" t="e">
-        <f>VLOOKUP(D232,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="9"/>
       <c r="F232" s="13" t="e">
-        <f>VLOOKUP(G232,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="19"/>
       <c r="H232" s="9"/>
       <c r="I232" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J232" s="3"/>
@@ -5665,19 +5604,19 @@
       <c r="A233" s="3"/>
       <c r="B233" s="9"/>
       <c r="C233" s="13" t="e">
-        <f>VLOOKUP(D233,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D233" s="14"/>
       <c r="E233" s="9"/>
       <c r="F233" s="13" t="e">
-        <f>VLOOKUP(G233,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="18"/>
       <c r="H233" s="9"/>
       <c r="I233" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J233" s="3"/>
@@ -5686,19 +5625,19 @@
       <c r="A234" s="3"/>
       <c r="B234" s="9"/>
       <c r="C234" s="13" t="e">
-        <f>VLOOKUP(D234,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="9"/>
       <c r="F234" s="13" t="e">
-        <f>VLOOKUP(G234,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="19"/>
       <c r="H234" s="9"/>
       <c r="I234" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J234" s="3"/>
@@ -5707,19 +5646,19 @@
       <c r="A235" s="3"/>
       <c r="B235" s="9"/>
       <c r="C235" s="13" t="e">
-        <f>VLOOKUP(D235,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D235" s="14"/>
       <c r="E235" s="9"/>
       <c r="F235" s="13" t="e">
-        <f>VLOOKUP(G235,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="18"/>
       <c r="H235" s="9"/>
       <c r="I235" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J235" s="3"/>
@@ -5728,19 +5667,19 @@
       <c r="A236" s="3"/>
       <c r="B236" s="9"/>
       <c r="C236" s="13" t="e">
-        <f>VLOOKUP(D236,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="9"/>
       <c r="F236" s="13" t="e">
-        <f>VLOOKUP(G236,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="19"/>
       <c r="H236" s="9"/>
       <c r="I236" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J236" s="3"/>
@@ -5749,19 +5688,19 @@
       <c r="A237" s="3"/>
       <c r="B237" s="9"/>
       <c r="C237" s="13" t="e">
-        <f>VLOOKUP(D237,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D237" s="14"/>
       <c r="E237" s="9"/>
       <c r="F237" s="13" t="e">
-        <f>VLOOKUP(G237,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="18"/>
       <c r="H237" s="9"/>
       <c r="I237" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J237" s="3"/>
@@ -5770,19 +5709,19 @@
       <c r="A238" s="3"/>
       <c r="B238" s="9"/>
       <c r="C238" s="13" t="e">
-        <f>VLOOKUP(D238,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D238" s="15"/>
       <c r="E238" s="9"/>
       <c r="F238" s="13" t="e">
-        <f>VLOOKUP(G238,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="19"/>
       <c r="H238" s="9"/>
       <c r="I238" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J238" s="3"/>
@@ -5791,19 +5730,19 @@
       <c r="A239" s="3"/>
       <c r="B239" s="9"/>
       <c r="C239" s="13" t="e">
-        <f>VLOOKUP(D239,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D239" s="14"/>
       <c r="E239" s="9"/>
       <c r="F239" s="13" t="e">
-        <f>VLOOKUP(G239,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="18"/>
       <c r="H239" s="9"/>
       <c r="I239" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J239" s="3"/>
@@ -5812,19 +5751,19 @@
       <c r="A240" s="3"/>
       <c r="B240" s="9"/>
       <c r="C240" s="13" t="e">
-        <f>VLOOKUP(D240,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="9"/>
       <c r="F240" s="13" t="e">
-        <f>VLOOKUP(G240,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="19"/>
       <c r="H240" s="9"/>
       <c r="I240" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J240" s="3"/>
@@ -5833,19 +5772,19 @@
       <c r="A241" s="3"/>
       <c r="B241" s="9"/>
       <c r="C241" s="13" t="e">
-        <f>VLOOKUP(D241,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D241" s="14"/>
       <c r="E241" s="9"/>
       <c r="F241" s="13" t="e">
-        <f>VLOOKUP(G241,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="18"/>
       <c r="H241" s="9"/>
       <c r="I241" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J241" s="3"/>
@@ -5854,19 +5793,19 @@
       <c r="A242" s="3"/>
       <c r="B242" s="9"/>
       <c r="C242" s="13" t="e">
-        <f>VLOOKUP(D242,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="9"/>
       <c r="F242" s="13" t="e">
-        <f>VLOOKUP(G242,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="19"/>
       <c r="H242" s="9"/>
       <c r="I242" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J242" s="3"/>
@@ -5875,19 +5814,19 @@
       <c r="A243" s="3"/>
       <c r="B243" s="9"/>
       <c r="C243" s="13" t="e">
-        <f>VLOOKUP(D243,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D243" s="14"/>
       <c r="E243" s="9"/>
       <c r="F243" s="13" t="e">
-        <f>VLOOKUP(G243,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="18"/>
       <c r="H243" s="9"/>
       <c r="I243" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J243" s="3"/>
@@ -5896,19 +5835,19 @@
       <c r="A244" s="3"/>
       <c r="B244" s="9"/>
       <c r="C244" s="13" t="e">
-        <f>VLOOKUP(D244,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="9"/>
       <c r="F244" s="13" t="e">
-        <f>VLOOKUP(G244,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="19"/>
       <c r="H244" s="9"/>
       <c r="I244" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J244" s="3"/>
@@ -5917,19 +5856,19 @@
       <c r="A245" s="3"/>
       <c r="B245" s="9"/>
       <c r="C245" s="13" t="e">
-        <f>VLOOKUP(D245,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D245" s="14"/>
       <c r="E245" s="9"/>
       <c r="F245" s="13" t="e">
-        <f>VLOOKUP(G245,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="18"/>
       <c r="H245" s="9"/>
       <c r="I245" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J245" s="3"/>
@@ -5938,19 +5877,19 @@
       <c r="A246" s="3"/>
       <c r="B246" s="9"/>
       <c r="C246" s="13" t="e">
-        <f>VLOOKUP(D246,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="9"/>
       <c r="F246" s="13" t="e">
-        <f>VLOOKUP(G246,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="19"/>
       <c r="H246" s="9"/>
       <c r="I246" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J246" s="3"/>
@@ -5959,19 +5898,19 @@
       <c r="A247" s="3"/>
       <c r="B247" s="9"/>
       <c r="C247" s="13" t="e">
-        <f>VLOOKUP(D247,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D247" s="14"/>
       <c r="E247" s="9"/>
       <c r="F247" s="13" t="e">
-        <f>VLOOKUP(G247,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="18"/>
       <c r="H247" s="9"/>
       <c r="I247" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J247" s="3"/>
@@ -5980,19 +5919,19 @@
       <c r="A248" s="3"/>
       <c r="B248" s="9"/>
       <c r="C248" s="13" t="e">
-        <f>VLOOKUP(D248,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="9"/>
       <c r="F248" s="13" t="e">
-        <f>VLOOKUP(G248,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="19"/>
       <c r="H248" s="9"/>
       <c r="I248" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J248" s="3"/>
@@ -6001,19 +5940,19 @@
       <c r="A249" s="3"/>
       <c r="B249" s="9"/>
       <c r="C249" s="13" t="e">
-        <f>VLOOKUP(D249,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D249" s="14"/>
       <c r="E249" s="9"/>
       <c r="F249" s="13" t="e">
-        <f>VLOOKUP(G249,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="18"/>
       <c r="H249" s="9"/>
       <c r="I249" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J249" s="3"/>
@@ -6022,19 +5961,19 @@
       <c r="A250" s="3"/>
       <c r="B250" s="9"/>
       <c r="C250" s="13" t="e">
-        <f>VLOOKUP(D250,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="9"/>
       <c r="F250" s="13" t="e">
-        <f>VLOOKUP(G250,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="19"/>
       <c r="H250" s="9"/>
       <c r="I250" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J250" s="3"/>
@@ -6043,19 +5982,19 @@
       <c r="A251" s="3"/>
       <c r="B251" s="9"/>
       <c r="C251" s="13" t="e">
-        <f>VLOOKUP(D251,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D251" s="14"/>
       <c r="E251" s="9"/>
       <c r="F251" s="13" t="e">
-        <f>VLOOKUP(G251,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="18"/>
       <c r="H251" s="9"/>
       <c r="I251" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J251" s="3"/>
@@ -6064,19 +6003,19 @@
       <c r="A252" s="3"/>
       <c r="B252" s="9"/>
       <c r="C252" s="13" t="e">
-        <f>VLOOKUP(D252,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D252" s="15"/>
       <c r="E252" s="9"/>
       <c r="F252" s="13" t="e">
-        <f>VLOOKUP(G252,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="19"/>
       <c r="H252" s="9"/>
       <c r="I252" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J252" s="3"/>
@@ -6085,19 +6024,19 @@
       <c r="A253" s="3"/>
       <c r="B253" s="9"/>
       <c r="C253" s="13" t="e">
-        <f>VLOOKUP(D253,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D253" s="14"/>
       <c r="E253" s="9"/>
       <c r="F253" s="13" t="e">
-        <f>VLOOKUP(G253,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="18"/>
       <c r="H253" s="9"/>
       <c r="I253" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J253" s="3"/>
@@ -6106,19 +6045,19 @@
       <c r="A254" s="3"/>
       <c r="B254" s="9"/>
       <c r="C254" s="13" t="e">
-        <f>VLOOKUP(D254,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="9"/>
       <c r="F254" s="13" t="e">
-        <f>VLOOKUP(G254,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="19"/>
       <c r="H254" s="9"/>
       <c r="I254" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J254" s="3"/>
@@ -6127,19 +6066,19 @@
       <c r="A255" s="3"/>
       <c r="B255" s="9"/>
       <c r="C255" s="13" t="e">
-        <f>VLOOKUP(D255,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D255" s="14"/>
       <c r="E255" s="9"/>
       <c r="F255" s="13" t="e">
-        <f>VLOOKUP(G255,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="18"/>
       <c r="H255" s="9"/>
       <c r="I255" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J255" s="3"/>
@@ -6148,19 +6087,19 @@
       <c r="A256" s="3"/>
       <c r="B256" s="9"/>
       <c r="C256" s="13" t="e">
-        <f>VLOOKUP(D256,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="9"/>
       <c r="F256" s="13" t="e">
-        <f>VLOOKUP(G256,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="19"/>
       <c r="H256" s="9"/>
       <c r="I256" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J256" s="3"/>
@@ -6169,19 +6108,19 @@
       <c r="A257" s="3"/>
       <c r="B257" s="9"/>
       <c r="C257" s="13" t="e">
-        <f>VLOOKUP(D257,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D257" s="14"/>
       <c r="E257" s="9"/>
       <c r="F257" s="13" t="e">
-        <f>VLOOKUP(G257,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G257" s="18"/>
       <c r="H257" s="9"/>
       <c r="I257" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="J257" s="3"/>
@@ -6190,19 +6129,19 @@
       <c r="A258" s="3"/>
       <c r="B258" s="9"/>
       <c r="C258" s="13" t="e">
-        <f>VLOOKUP(D258,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D258" s="15"/>
       <c r="E258" s="9"/>
       <c r="F258" s="13" t="e">
-        <f>VLOOKUP(G258,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G258" s="19"/>
       <c r="H258" s="9"/>
       <c r="I258" s="3" t="e">
-        <f t="shared" ref="I258:I310" si="4">VLOOKUP(J258,Tabla_Mes,2,)</f>
+        <f t="shared" ref="I258:I310" si="12">VLOOKUP(J258,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="J258" s="3"/>
@@ -6211,19 +6150,19 @@
       <c r="A259" s="3"/>
       <c r="B259" s="9"/>
       <c r="C259" s="13" t="e">
-        <f>VLOOKUP(D259,Tabla_TIBAU,2,)</f>
+        <f t="shared" ref="C259:C322" si="13">VLOOKUP(D259,Tabla_TIBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D259" s="14"/>
       <c r="E259" s="9"/>
       <c r="F259" s="13" t="e">
-        <f>VLOOKUP(G259,Tabla_TIPOINI,2,)</f>
+        <f t="shared" ref="F259:F322" si="14">VLOOKUP(G259,Tabla_TIPOINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G259" s="18"/>
       <c r="H259" s="9"/>
       <c r="I259" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J259" s="3"/>
@@ -6232,19 +6171,19 @@
       <c r="A260" s="3"/>
       <c r="B260" s="9"/>
       <c r="C260" s="13" t="e">
-        <f>VLOOKUP(D260,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="9"/>
       <c r="F260" s="13" t="e">
-        <f>VLOOKUP(G260,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G260" s="19"/>
       <c r="H260" s="9"/>
       <c r="I260" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J260" s="3"/>
@@ -6253,19 +6192,19 @@
       <c r="A261" s="3"/>
       <c r="B261" s="9"/>
       <c r="C261" s="13" t="e">
-        <f>VLOOKUP(D261,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D261" s="14"/>
       <c r="E261" s="9"/>
       <c r="F261" s="13" t="e">
-        <f>VLOOKUP(G261,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G261" s="18"/>
       <c r="H261" s="9"/>
       <c r="I261" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J261" s="3"/>
@@ -6274,19 +6213,19 @@
       <c r="A262" s="3"/>
       <c r="B262" s="9"/>
       <c r="C262" s="13" t="e">
-        <f>VLOOKUP(D262,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="9"/>
       <c r="F262" s="13" t="e">
-        <f>VLOOKUP(G262,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G262" s="19"/>
       <c r="H262" s="9"/>
       <c r="I262" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J262" s="3"/>
@@ -6295,19 +6234,19 @@
       <c r="A263" s="3"/>
       <c r="B263" s="9"/>
       <c r="C263" s="13" t="e">
-        <f>VLOOKUP(D263,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D263" s="14"/>
       <c r="E263" s="9"/>
       <c r="F263" s="13" t="e">
-        <f>VLOOKUP(G263,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G263" s="18"/>
       <c r="H263" s="9"/>
       <c r="I263" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J263" s="3"/>
@@ -6316,19 +6255,19 @@
       <c r="A264" s="3"/>
       <c r="B264" s="9"/>
       <c r="C264" s="13" t="e">
-        <f>VLOOKUP(D264,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="9"/>
       <c r="F264" s="13" t="e">
-        <f>VLOOKUP(G264,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G264" s="19"/>
       <c r="H264" s="9"/>
       <c r="I264" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J264" s="3"/>
@@ -6337,19 +6276,19 @@
       <c r="A265" s="3"/>
       <c r="B265" s="9"/>
       <c r="C265" s="13" t="e">
-        <f>VLOOKUP(D265,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D265" s="14"/>
       <c r="E265" s="9"/>
       <c r="F265" s="13" t="e">
-        <f>VLOOKUP(G265,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G265" s="18"/>
       <c r="H265" s="9"/>
       <c r="I265" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J265" s="3"/>
@@ -6358,19 +6297,19 @@
       <c r="A266" s="3"/>
       <c r="B266" s="9"/>
       <c r="C266" s="13" t="e">
-        <f>VLOOKUP(D266,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="9"/>
       <c r="F266" s="13" t="e">
-        <f>VLOOKUP(G266,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G266" s="19"/>
       <c r="H266" s="9"/>
       <c r="I266" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J266" s="3"/>
@@ -6379,19 +6318,19 @@
       <c r="A267" s="3"/>
       <c r="B267" s="9"/>
       <c r="C267" s="13" t="e">
-        <f>VLOOKUP(D267,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D267" s="14"/>
       <c r="E267" s="9"/>
       <c r="F267" s="13" t="e">
-        <f>VLOOKUP(G267,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G267" s="18"/>
       <c r="H267" s="9"/>
       <c r="I267" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J267" s="3"/>
@@ -6400,19 +6339,19 @@
       <c r="A268" s="3"/>
       <c r="B268" s="9"/>
       <c r="C268" s="13" t="e">
-        <f>VLOOKUP(D268,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D268" s="15"/>
       <c r="E268" s="9"/>
       <c r="F268" s="13" t="e">
-        <f>VLOOKUP(G268,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G268" s="19"/>
       <c r="H268" s="9"/>
       <c r="I268" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J268" s="3"/>
@@ -6421,19 +6360,19 @@
       <c r="A269" s="3"/>
       <c r="B269" s="9"/>
       <c r="C269" s="13" t="e">
-        <f>VLOOKUP(D269,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D269" s="14"/>
       <c r="E269" s="9"/>
       <c r="F269" s="13" t="e">
-        <f>VLOOKUP(G269,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G269" s="18"/>
       <c r="H269" s="9"/>
       <c r="I269" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J269" s="3"/>
@@ -6442,19 +6381,19 @@
       <c r="A270" s="3"/>
       <c r="B270" s="9"/>
       <c r="C270" s="13" t="e">
-        <f>VLOOKUP(D270,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="9"/>
       <c r="F270" s="13" t="e">
-        <f>VLOOKUP(G270,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G270" s="19"/>
       <c r="H270" s="9"/>
       <c r="I270" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J270" s="3"/>
@@ -6463,19 +6402,19 @@
       <c r="A271" s="3"/>
       <c r="B271" s="9"/>
       <c r="C271" s="13" t="e">
-        <f>VLOOKUP(D271,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D271" s="14"/>
       <c r="E271" s="9"/>
       <c r="F271" s="13" t="e">
-        <f>VLOOKUP(G271,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G271" s="18"/>
       <c r="H271" s="9"/>
       <c r="I271" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J271" s="3"/>
@@ -6484,19 +6423,19 @@
       <c r="A272" s="3"/>
       <c r="B272" s="9"/>
       <c r="C272" s="13" t="e">
-        <f>VLOOKUP(D272,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="9"/>
       <c r="F272" s="13" t="e">
-        <f>VLOOKUP(G272,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G272" s="19"/>
       <c r="H272" s="9"/>
       <c r="I272" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J272" s="3"/>
@@ -6505,19 +6444,19 @@
       <c r="A273" s="3"/>
       <c r="B273" s="9"/>
       <c r="C273" s="13" t="e">
-        <f>VLOOKUP(D273,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D273" s="14"/>
       <c r="E273" s="9"/>
       <c r="F273" s="13" t="e">
-        <f>VLOOKUP(G273,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G273" s="18"/>
       <c r="H273" s="9"/>
       <c r="I273" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J273" s="3"/>
@@ -6526,19 +6465,19 @@
       <c r="A274" s="3"/>
       <c r="B274" s="9"/>
       <c r="C274" s="13" t="e">
-        <f>VLOOKUP(D274,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D274" s="15"/>
       <c r="E274" s="9"/>
       <c r="F274" s="13" t="e">
-        <f>VLOOKUP(G274,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G274" s="19"/>
       <c r="H274" s="9"/>
       <c r="I274" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J274" s="3"/>
@@ -6547,19 +6486,19 @@
       <c r="A275" s="3"/>
       <c r="B275" s="9"/>
       <c r="C275" s="13" t="e">
-        <f>VLOOKUP(D275,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D275" s="14"/>
       <c r="E275" s="9"/>
       <c r="F275" s="13" t="e">
-        <f>VLOOKUP(G275,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G275" s="18"/>
       <c r="H275" s="9"/>
       <c r="I275" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J275" s="3"/>
@@ -6568,19 +6507,19 @@
       <c r="A276" s="3"/>
       <c r="B276" s="9"/>
       <c r="C276" s="13" t="e">
-        <f>VLOOKUP(D276,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D276" s="15"/>
       <c r="E276" s="9"/>
       <c r="F276" s="13" t="e">
-        <f>VLOOKUP(G276,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G276" s="19"/>
       <c r="H276" s="9"/>
       <c r="I276" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J276" s="3"/>
@@ -6589,19 +6528,19 @@
       <c r="A277" s="3"/>
       <c r="B277" s="9"/>
       <c r="C277" s="13" t="e">
-        <f>VLOOKUP(D277,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D277" s="14"/>
       <c r="E277" s="9"/>
       <c r="F277" s="13" t="e">
-        <f>VLOOKUP(G277,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G277" s="18"/>
       <c r="H277" s="9"/>
       <c r="I277" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J277" s="3"/>
@@ -6610,19 +6549,19 @@
       <c r="A278" s="3"/>
       <c r="B278" s="9"/>
       <c r="C278" s="13" t="e">
-        <f>VLOOKUP(D278,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D278" s="15"/>
       <c r="E278" s="9"/>
       <c r="F278" s="13" t="e">
-        <f>VLOOKUP(G278,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G278" s="19"/>
       <c r="H278" s="9"/>
       <c r="I278" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J278" s="3"/>
@@ -6631,19 +6570,19 @@
       <c r="A279" s="3"/>
       <c r="B279" s="9"/>
       <c r="C279" s="13" t="e">
-        <f>VLOOKUP(D279,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D279" s="14"/>
       <c r="E279" s="9"/>
       <c r="F279" s="13" t="e">
-        <f>VLOOKUP(G279,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G279" s="18"/>
       <c r="H279" s="9"/>
       <c r="I279" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J279" s="3"/>
@@ -6652,19 +6591,19 @@
       <c r="A280" s="3"/>
       <c r="B280" s="9"/>
       <c r="C280" s="13" t="e">
-        <f>VLOOKUP(D280,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D280" s="15"/>
       <c r="E280" s="9"/>
       <c r="F280" s="13" t="e">
-        <f>VLOOKUP(G280,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G280" s="19"/>
       <c r="H280" s="9"/>
       <c r="I280" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J280" s="3"/>
@@ -6673,19 +6612,19 @@
       <c r="A281" s="3"/>
       <c r="B281" s="9"/>
       <c r="C281" s="13" t="e">
-        <f>VLOOKUP(D281,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D281" s="14"/>
       <c r="E281" s="9"/>
       <c r="F281" s="13" t="e">
-        <f>VLOOKUP(G281,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G281" s="18"/>
       <c r="H281" s="9"/>
       <c r="I281" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J281" s="3"/>
@@ -6694,19 +6633,19 @@
       <c r="A282" s="3"/>
       <c r="B282" s="9"/>
       <c r="C282" s="13" t="e">
-        <f>VLOOKUP(D282,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D282" s="15"/>
       <c r="E282" s="9"/>
       <c r="F282" s="13" t="e">
-        <f>VLOOKUP(G282,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G282" s="19"/>
       <c r="H282" s="9"/>
       <c r="I282" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J282" s="3"/>
@@ -6715,19 +6654,19 @@
       <c r="A283" s="3"/>
       <c r="B283" s="9"/>
       <c r="C283" s="13" t="e">
-        <f>VLOOKUP(D283,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D283" s="14"/>
       <c r="E283" s="9"/>
       <c r="F283" s="13" t="e">
-        <f>VLOOKUP(G283,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G283" s="18"/>
       <c r="H283" s="9"/>
       <c r="I283" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J283" s="3"/>
@@ -6736,19 +6675,19 @@
       <c r="A284" s="3"/>
       <c r="B284" s="9"/>
       <c r="C284" s="13" t="e">
-        <f>VLOOKUP(D284,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D284" s="15"/>
       <c r="E284" s="9"/>
       <c r="F284" s="13" t="e">
-        <f>VLOOKUP(G284,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G284" s="19"/>
       <c r="H284" s="9"/>
       <c r="I284" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J284" s="3"/>
@@ -6757,19 +6696,19 @@
       <c r="A285" s="3"/>
       <c r="B285" s="9"/>
       <c r="C285" s="13" t="e">
-        <f>VLOOKUP(D285,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D285" s="14"/>
       <c r="E285" s="9"/>
       <c r="F285" s="13" t="e">
-        <f>VLOOKUP(G285,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G285" s="18"/>
       <c r="H285" s="9"/>
       <c r="I285" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J285" s="3"/>
@@ -6778,19 +6717,19 @@
       <c r="A286" s="3"/>
       <c r="B286" s="9"/>
       <c r="C286" s="13" t="e">
-        <f>VLOOKUP(D286,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D286" s="15"/>
       <c r="E286" s="9"/>
       <c r="F286" s="13" t="e">
-        <f>VLOOKUP(G286,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G286" s="19"/>
       <c r="H286" s="9"/>
       <c r="I286" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J286" s="3"/>
@@ -6799,19 +6738,19 @@
       <c r="A287" s="3"/>
       <c r="B287" s="9"/>
       <c r="C287" s="13" t="e">
-        <f>VLOOKUP(D287,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D287" s="14"/>
       <c r="E287" s="9"/>
       <c r="F287" s="13" t="e">
-        <f>VLOOKUP(G287,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G287" s="18"/>
       <c r="H287" s="9"/>
       <c r="I287" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J287" s="3"/>
@@ -6820,19 +6759,19 @@
       <c r="A288" s="3"/>
       <c r="B288" s="9"/>
       <c r="C288" s="13" t="e">
-        <f>VLOOKUP(D288,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D288" s="15"/>
       <c r="E288" s="9"/>
       <c r="F288" s="13" t="e">
-        <f>VLOOKUP(G288,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G288" s="19"/>
       <c r="H288" s="9"/>
       <c r="I288" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J288" s="3"/>
@@ -6841,19 +6780,19 @@
       <c r="A289" s="3"/>
       <c r="B289" s="9"/>
       <c r="C289" s="13" t="e">
-        <f>VLOOKUP(D289,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D289" s="14"/>
       <c r="E289" s="9"/>
       <c r="F289" s="13" t="e">
-        <f>VLOOKUP(G289,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G289" s="18"/>
       <c r="H289" s="9"/>
       <c r="I289" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J289" s="3"/>
@@ -6862,19 +6801,19 @@
       <c r="A290" s="3"/>
       <c r="B290" s="9"/>
       <c r="C290" s="13" t="e">
-        <f>VLOOKUP(D290,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="9"/>
       <c r="F290" s="13" t="e">
-        <f>VLOOKUP(G290,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G290" s="19"/>
       <c r="H290" s="9"/>
       <c r="I290" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J290" s="3"/>
@@ -6883,19 +6822,19 @@
       <c r="A291" s="3"/>
       <c r="B291" s="9"/>
       <c r="C291" s="13" t="e">
-        <f>VLOOKUP(D291,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D291" s="14"/>
       <c r="E291" s="9"/>
       <c r="F291" s="13" t="e">
-        <f>VLOOKUP(G291,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G291" s="18"/>
       <c r="H291" s="9"/>
       <c r="I291" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J291" s="3"/>
@@ -6904,19 +6843,19 @@
       <c r="A292" s="3"/>
       <c r="B292" s="9"/>
       <c r="C292" s="13" t="e">
-        <f>VLOOKUP(D292,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D292" s="15"/>
       <c r="E292" s="9"/>
       <c r="F292" s="13" t="e">
-        <f>VLOOKUP(G292,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G292" s="19"/>
       <c r="H292" s="9"/>
       <c r="I292" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J292" s="3"/>
@@ -6925,19 +6864,19 @@
       <c r="A293" s="3"/>
       <c r="B293" s="9"/>
       <c r="C293" s="13" t="e">
-        <f>VLOOKUP(D293,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D293" s="14"/>
       <c r="E293" s="9"/>
       <c r="F293" s="13" t="e">
-        <f>VLOOKUP(G293,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G293" s="18"/>
       <c r="H293" s="9"/>
       <c r="I293" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J293" s="3"/>
@@ -6946,19 +6885,19 @@
       <c r="A294" s="3"/>
       <c r="B294" s="9"/>
       <c r="C294" s="13" t="e">
-        <f>VLOOKUP(D294,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D294" s="15"/>
       <c r="E294" s="9"/>
       <c r="F294" s="13" t="e">
-        <f>VLOOKUP(G294,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G294" s="19"/>
       <c r="H294" s="9"/>
       <c r="I294" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J294" s="3"/>
@@ -6967,19 +6906,19 @@
       <c r="A295" s="3"/>
       <c r="B295" s="9"/>
       <c r="C295" s="13" t="e">
-        <f>VLOOKUP(D295,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D295" s="14"/>
       <c r="E295" s="9"/>
       <c r="F295" s="13" t="e">
-        <f>VLOOKUP(G295,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G295" s="18"/>
       <c r="H295" s="9"/>
       <c r="I295" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J295" s="3"/>
@@ -6988,19 +6927,19 @@
       <c r="A296" s="3"/>
       <c r="B296" s="9"/>
       <c r="C296" s="13" t="e">
-        <f>VLOOKUP(D296,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D296" s="15"/>
       <c r="E296" s="9"/>
       <c r="F296" s="13" t="e">
-        <f>VLOOKUP(G296,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G296" s="19"/>
       <c r="H296" s="9"/>
       <c r="I296" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J296" s="3"/>
@@ -7009,19 +6948,19 @@
       <c r="A297" s="3"/>
       <c r="B297" s="9"/>
       <c r="C297" s="13" t="e">
-        <f>VLOOKUP(D297,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D297" s="14"/>
       <c r="E297" s="9"/>
       <c r="F297" s="13" t="e">
-        <f>VLOOKUP(G297,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G297" s="18"/>
       <c r="H297" s="9"/>
       <c r="I297" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J297" s="3"/>
@@ -7030,19 +6969,19 @@
       <c r="A298" s="3"/>
       <c r="B298" s="9"/>
       <c r="C298" s="13" t="e">
-        <f>VLOOKUP(D298,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D298" s="15"/>
       <c r="E298" s="9"/>
       <c r="F298" s="13" t="e">
-        <f>VLOOKUP(G298,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G298" s="19"/>
       <c r="H298" s="9"/>
       <c r="I298" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J298" s="3"/>
@@ -7051,19 +6990,19 @@
       <c r="A299" s="3"/>
       <c r="B299" s="9"/>
       <c r="C299" s="13" t="e">
-        <f>VLOOKUP(D299,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D299" s="14"/>
       <c r="E299" s="9"/>
       <c r="F299" s="13" t="e">
-        <f>VLOOKUP(G299,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G299" s="18"/>
       <c r="H299" s="9"/>
       <c r="I299" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J299" s="3"/>
@@ -7072,19 +7011,19 @@
       <c r="A300" s="3"/>
       <c r="B300" s="9"/>
       <c r="C300" s="13" t="e">
-        <f>VLOOKUP(D300,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D300" s="15"/>
       <c r="E300" s="9"/>
       <c r="F300" s="13" t="e">
-        <f>VLOOKUP(G300,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G300" s="19"/>
       <c r="H300" s="9"/>
       <c r="I300" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J300" s="3"/>
@@ -7093,19 +7032,19 @@
       <c r="A301" s="3"/>
       <c r="B301" s="9"/>
       <c r="C301" s="13" t="e">
-        <f>VLOOKUP(D301,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D301" s="14"/>
       <c r="E301" s="9"/>
       <c r="F301" s="13" t="e">
-        <f>VLOOKUP(G301,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G301" s="18"/>
       <c r="H301" s="9"/>
       <c r="I301" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J301" s="3"/>
@@ -7114,19 +7053,19 @@
       <c r="A302" s="3"/>
       <c r="B302" s="9"/>
       <c r="C302" s="13" t="e">
-        <f>VLOOKUP(D302,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D302" s="15"/>
       <c r="E302" s="9"/>
       <c r="F302" s="13" t="e">
-        <f>VLOOKUP(G302,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G302" s="19"/>
       <c r="H302" s="9"/>
       <c r="I302" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J302" s="3"/>
@@ -7135,19 +7074,19 @@
       <c r="A303" s="3"/>
       <c r="B303" s="9"/>
       <c r="C303" s="13" t="e">
-        <f>VLOOKUP(D303,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D303" s="14"/>
       <c r="E303" s="9"/>
       <c r="F303" s="13" t="e">
-        <f>VLOOKUP(G303,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G303" s="18"/>
       <c r="H303" s="9"/>
       <c r="I303" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J303" s="3"/>
@@ -7156,19 +7095,19 @@
       <c r="A304" s="3"/>
       <c r="B304" s="9"/>
       <c r="C304" s="13" t="e">
-        <f>VLOOKUP(D304,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D304" s="15"/>
       <c r="E304" s="9"/>
       <c r="F304" s="13" t="e">
-        <f>VLOOKUP(G304,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G304" s="19"/>
       <c r="H304" s="9"/>
       <c r="I304" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J304" s="3"/>
@@ -7177,19 +7116,19 @@
       <c r="A305" s="3"/>
       <c r="B305" s="9"/>
       <c r="C305" s="13" t="e">
-        <f>VLOOKUP(D305,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D305" s="14"/>
       <c r="E305" s="9"/>
       <c r="F305" s="13" t="e">
-        <f>VLOOKUP(G305,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G305" s="18"/>
       <c r="H305" s="9"/>
       <c r="I305" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J305" s="3"/>
@@ -7198,19 +7137,19 @@
       <c r="A306" s="3"/>
       <c r="B306" s="9"/>
       <c r="C306" s="13" t="e">
-        <f>VLOOKUP(D306,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D306" s="15"/>
       <c r="E306" s="9"/>
       <c r="F306" s="13" t="e">
-        <f>VLOOKUP(G306,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G306" s="19"/>
       <c r="H306" s="9"/>
       <c r="I306" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J306" s="3"/>
@@ -7219,19 +7158,19 @@
       <c r="A307" s="3"/>
       <c r="B307" s="9"/>
       <c r="C307" s="13" t="e">
-        <f>VLOOKUP(D307,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D307" s="14"/>
       <c r="E307" s="9"/>
       <c r="F307" s="13" t="e">
-        <f>VLOOKUP(G307,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G307" s="18"/>
       <c r="H307" s="9"/>
       <c r="I307" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J307" s="3"/>
@@ -7240,19 +7179,19 @@
       <c r="A308" s="3"/>
       <c r="B308" s="9"/>
       <c r="C308" s="13" t="e">
-        <f>VLOOKUP(D308,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D308" s="15"/>
       <c r="E308" s="9"/>
       <c r="F308" s="13" t="e">
-        <f>VLOOKUP(G308,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G308" s="19"/>
       <c r="H308" s="9"/>
       <c r="I308" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J308" s="3"/>
@@ -7261,19 +7200,19 @@
       <c r="A309" s="3"/>
       <c r="B309" s="9"/>
       <c r="C309" s="13" t="e">
-        <f>VLOOKUP(D309,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D309" s="14"/>
       <c r="E309" s="9"/>
       <c r="F309" s="13" t="e">
-        <f>VLOOKUP(G309,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G309" s="18"/>
       <c r="H309" s="9"/>
       <c r="I309" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J309" s="3"/>
@@ -7282,19 +7221,19 @@
       <c r="A310" s="3"/>
       <c r="B310" s="9"/>
       <c r="C310" s="13" t="e">
-        <f>VLOOKUP(D310,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D310" s="15"/>
       <c r="E310" s="9"/>
       <c r="F310" s="13" t="e">
-        <f>VLOOKUP(G310,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G310" s="19"/>
       <c r="H310" s="9"/>
       <c r="I310" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="J310" s="3"/>
@@ -7303,13 +7242,13 @@
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="13" t="e">
-        <f>VLOOKUP(D311,Tabla_TIBAU,2,)</f>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="D311" s="14"/>
       <c r="E311" s="3"/>
       <c r="F311" s="13" t="e">
-        <f>VLOOKUP(G311,Tabla_TIPOINI,2,)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G311" s="18"/>
@@ -7318,7 +7257,7 @@
       <c r="J311" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1I0EaQqSNMsrOAeCT9jP/GJUUTL7cP+mDUzEhXLXvHTl3MaIhLy8emicjNkYfIxGRuQsJB8LtFnqkl+/opSDzw==" saltValue="ZjKF/e2cVLuZ8ktXe1aNiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4iU5Q6S7+PRUoCqwgXcRGxBYqCnnHT7A9QEyOycEvngwqY0HuprjaCMMQ+nYa5KLt7nz+GQnRwI7e8JhVEs+4w==" saltValue="psd0dPZuEke/VbKao+TQBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A310" xr:uid="{EFABA8EB-ADB9-49A2-84A8-8D15D3266206}">
@@ -7385,16 +7324,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7408,13 +7347,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.7 Plantilla_Lamparas_de_alumbrado_publico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.7 Plantilla_Lamparas_de_alumbrado_publico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B63E6C-C999-487F-A115-65F211DCB1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC80FF0B-B904-4490-898D-3BA39493806C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{048E799F-1FF6-4BDA-9D71-D92380C958E8}"/>
   </bookViews>
@@ -160,16 +160,16 @@
     <t>Tipo de lámpara BAU. Seleccione el desplegable.</t>
   </si>
   <si>
-    <t>Potencia de lámpara Iniciativa. Inserte su dato</t>
-  </si>
-  <si>
     <t>Tipo de lámpara Iniciativa. Seleccione el desplegable.</t>
   </si>
   <si>
     <t>Numero de unidades de este tipo o clase (Potencia iniciativa).  Inserte su dato.</t>
   </si>
   <si>
-    <t>Mes en el que se compraron las lámparas. Seleccione de la lista desplegable</t>
+    <t>Potencia de lámpara Iniciativa. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Mes en el que se compraron las lámparas. Seleccione de la lista desplegable.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,14 +742,14 @@
         <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
@@ -6150,13 +6150,13 @@
       <c r="A259" s="3"/>
       <c r="B259" s="9"/>
       <c r="C259" s="13" t="e">
-        <f t="shared" ref="C259:C322" si="13">VLOOKUP(D259,Tabla_TIBAU,2,)</f>
+        <f t="shared" ref="C259:C311" si="13">VLOOKUP(D259,Tabla_TIBAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D259" s="14"/>
       <c r="E259" s="9"/>
       <c r="F259" s="13" t="e">
-        <f t="shared" ref="F259:F322" si="14">VLOOKUP(G259,Tabla_TIPOINI,2,)</f>
+        <f t="shared" ref="F259:F311" si="14">VLOOKUP(G259,Tabla_TIPOINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G259" s="18"/>
@@ -7257,7 +7257,7 @@
       <c r="J311" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4iU5Q6S7+PRUoCqwgXcRGxBYqCnnHT7A9QEyOycEvngwqY0HuprjaCMMQ+nYa5KLt7nz+GQnRwI7e8JhVEs+4w==" saltValue="psd0dPZuEke/VbKao+TQBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BZ32FKC0LAjhU6VTGoBL+pyzIU082cX0oxlSRIZEP5YSpqCSiMR9JTJ3qN+V9nhreTgdiBE6WgKEHjv/HOOCxw==" saltValue="SjppDEaB5kHE++n079q0QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A310" xr:uid="{EFABA8EB-ADB9-49A2-84A8-8D15D3266206}">
